--- a/precos/precos_report.xlsx
+++ b/precos/precos_report.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="C2">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B00RVUIRN4", "22.49")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B00RVUIRN4", "17.99")</f>
         <v/>
       </c>
       <c r="D2">
@@ -493,19 +493,19 @@
         <v/>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/carga-para-lmina-de-barbear-gillette-mach3-2-unidades/p/MLB17355357", "19.00")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/carga-para-lmina-de-barbear-gillette-mach3-2-unidades/p/MLB17355357", "21.23")</f>
         <v/>
       </c>
       <c r="F2">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/carga-gillette-mach3-com-2-unidades/p", "22.89")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/carga-gillette-mach3-com-2-unidades/p", "22.99")</f>
         <v/>
       </c>
       <c r="G2">
-        <f>HYPERLINK("https://www.drogaraia.com.br/mach-3-laminas-refil-2-unidades.html", "22.89")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/mach-3-laminas-refil-2-unidades.html", "22.99")</f>
         <v/>
       </c>
       <c r="H2" t="n">
-        <v>26.634</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C3">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07Y36PSZW", "76.98")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07Y36PSZW", "60.89")</f>
         <v/>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/4-cartuchos-refil-para-aparelho-fusion-5-gillette/p/MLB16088319", "114.00")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/4-cartuchos-refil-para-aparelho-fusion-5-gillette/p/MLB16088319", "107.92")</f>
         <v/>
       </c>
       <c r="F3">
@@ -535,11 +535,11 @@
         <v/>
       </c>
       <c r="G3">
-        <f>HYPERLINK("https://www.drogaraia.com.br/gillette-fusion5-carga-com-4-unidades.html", "79.20")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/gillette-fusion5-carga-com-4-unidades.html", "98.90")</f>
         <v/>
       </c>
       <c r="H3" t="n">
-        <v>87.345</v>
+        <v>86.72749999999999</v>
       </c>
     </row>
     <row r="4">
@@ -564,7 +564,7 @@
         <v/>
       </c>
       <c r="F4">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/aparelho-de-barbear-gillette-mach3-carbono-recarregavel-1-unidade/p", "28.61")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/aparelho-de-barbear-gillette-mach3-carbono-recarregavel-1-unidade/p", "24.49")</f>
         <v/>
       </c>
       <c r="G4">
@@ -572,7 +572,7 @@
         <v/>
       </c>
       <c r="H4" t="n">
-        <v>30.618</v>
+        <v>29.794</v>
       </c>
     </row>
     <row r="5">
@@ -593,19 +593,19 @@
         <v/>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/carga-para-lmina-de-barbear-gillette-mach3-sensitive-2unid/p/MLB17355368", "29.99")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/carga-para-lmina-de-barbear-gillette-mach3-sensitive-2unid/p/MLB17355368", "33.99")</f>
         <v/>
       </c>
       <c r="F5">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/carga-gillette-mach3-sensitive-c-2-unidades/p", "26.59")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/carga-gillette-mach3-sensitive-c-2-unidades/p", "25.19")</f>
         <v/>
       </c>
       <c r="G5">
-        <f>HYPERLINK("https://www.drogaraia.com.br/mach-3-sensitive-carca-com-2-unidades.html", "27.39")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/mach-3-sensitive-carca-com-2-unidades.html", "26.59")</f>
         <v/>
       </c>
       <c r="H5" t="n">
-        <v>31.492</v>
+        <v>31.852</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="C6">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CD2XTDSW", "37.79")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CD2XTDSW", "31.25")</f>
         <v/>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,19 +627,19 @@
         </is>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/shampoo-para-barba-241ml-king-c-gillette/p/MLB34076176", "34.90")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/shampoo-para-barba-241ml-king-c-gillette/p/MLB34076176", "34.48")</f>
         <v/>
       </c>
       <c r="F6">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/shampoo-para-barba-kingcgillette-mentol-241ml/p", "39.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/shampoo-para-barba-kingcgillette-mentol-241ml/p", "31.04")</f>
         <v/>
       </c>
       <c r="G6">
-        <f>HYPERLINK("https://www.drogaraia.com.br/king-c-gillette-shampoo-para-barba-241ml.html", "40.63")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/king-c-gillette-shampoo-para-barba-241ml.html", "32.90")</f>
         <v/>
       </c>
       <c r="H6" t="n">
-        <v>38.3275</v>
+        <v>32.4175</v>
       </c>
     </row>
     <row r="7">
@@ -660,11 +660,11 @@
         <v/>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/aparelho-de-barbear-mach3-sensitive-1-carga-gillette/p/MLB16525020", "18.95")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/aparelho-de-barbear-mach3-sensitive-1-carga-gillette/p/MLB16525020", "18.90")</f>
         <v/>
       </c>
       <c r="F7">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/aparelho-de-barbear-gillette-mach3-sensitive-c-1-unidade/p", "25.69")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/aparelho-de-barbear-gillette-mach3-sensitive-c-1-unidade/p", "21.52")</f>
         <v/>
       </c>
       <c r="G7">
@@ -672,7 +672,7 @@
         <v/>
       </c>
       <c r="H7" t="n">
-        <v>29.026</v>
+        <v>28.182</v>
       </c>
     </row>
     <row r="8">
@@ -697,15 +697,15 @@
         <v/>
       </c>
       <c r="F8">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/espuma-de-barbear-gillette-prestobarba-pele-sensivel-175g/p", "20.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/espuma-de-barbear-gillette-prestobarba-pele-sensivel-175g/p", "16.09")</f>
         <v/>
       </c>
       <c r="G8">
-        <f>HYPERLINK("https://www.drogaraia.com.br/prestobarba-espuma-de-barbear-pele-sensivel-150gr.html", "22.19")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/prestobarba-espuma-de-barbear-pele-sensivel-150gr.html", "21.99")</f>
         <v/>
       </c>
       <c r="H8" t="n">
-        <v>25.612</v>
+        <v>24.592</v>
       </c>
     </row>
     <row r="9">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="C9">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07F27F2Y9", "20.39")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07F27F2Y9", "19.37")</f>
         <v/>
       </c>
       <c r="D9">
@@ -726,19 +726,19 @@
         <v/>
       </c>
       <c r="E9">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/espuma-de-barbear-bozzano-200ml-pele-sensivel/p/MLB35999266", "34.99")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/espuma-de-barbear-bozzano-200ml-pele-sensivel/p/MLB35999266", "27.94")</f>
         <v/>
       </c>
       <c r="F9">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/espuma-de-barbear-bozzano-pele-sensivel-190g196ml/p", "20.39")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/espuma-de-barbear-bozzano-pele-sensivel-190g196ml/p", "20.49")</f>
         <v/>
       </c>
       <c r="G9">
-        <f>HYPERLINK("https://www.drogaraia.com.br/bozzano-protection-espuma-de-barbear-para-pele-sensivel-com-multivitaminas-e-emolientes-com-190g.html", "21.89")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/bozzano-protection-espuma-de-barbear-para-pele-sensivel-com-multivitaminas-e-emolientes-com-190g.html", "20.49")</f>
         <v/>
       </c>
       <c r="H9" t="n">
-        <v>24.512</v>
+        <v>22.638</v>
       </c>
     </row>
     <row r="10">
@@ -751,27 +751,27 @@
         </is>
       </c>
       <c r="C10">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B09N9YX2DZ", "18.48")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B09N9YX2DZ", "16.79")</f>
         <v/>
       </c>
       <c r="D10">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/phytoervas-sun-in-spray-clareador-e-hidratante/p", "14.90")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/phytoervas-sun-in-spray-clareador-e-hidratante/p", "19.93")</f>
         <v/>
       </c>
       <c r="E10">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/clareador-hidratante-capilar-cabelos-sun-in-phytoervas-120ml/p/MLB19558902", "14.37")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/clareador-hidratante-capilar-cabelos-sun-in-phytoervas-120ml/p/MLB19558902", "22.85")</f>
         <v/>
       </c>
       <c r="F10">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/spray-clareador-de-cabelo-phytoervas-sun-in-120ml/p", "16.79")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/spray-clareador-de-cabelo-phytoervas-sun-in-120ml/p", "17.79")</f>
         <v/>
       </c>
       <c r="G10">
-        <f>HYPERLINK("https://www.drogaraia.com.br/sun-in-spray-clareador-e-hidratante-phytoervas-cabelo-120ml.html", "17.98")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/sun-in-spray-clareador-e-hidratante-phytoervas-cabelo-120ml.html", "18.39")</f>
         <v/>
       </c>
       <c r="H10" t="n">
-        <v>16.504</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="11">
@@ -793,11 +793,11 @@
         <v/>
       </c>
       <c r="E11">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/retoque-instantneo-spray-koleston-preto-100ml/p/MLB20680049", "44.91")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/retoque-instantneo-spray-koleston-preto-100ml/p/MLB20680049", "40.99")</f>
         <v/>
       </c>
       <c r="F11">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/spray-retoque-de-raiz-koleston-louro-escuro-100ml-/p", "38.79")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/spray-retoque-de-raiz-koleston-louro-escuro-100ml-/p", "38.19")</f>
         <v/>
       </c>
       <c r="G11">
@@ -805,7 +805,7 @@
         <v/>
       </c>
       <c r="H11" t="n">
-        <v>40.02</v>
+        <v>38.89</v>
       </c>
     </row>
     <row r="12">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="C12">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07G5VZRYZ", "37.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07G5VZRYZ", "35.36")</f>
         <v/>
       </c>
       <c r="D12">
@@ -826,11 +826,11 @@
         <v/>
       </c>
       <c r="E12">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/tinte-loreal-paris-tintura-tom-chocolate-para-cabelo/p/MLB21823946", "51.45")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/tinte-loreal-paris-tintura-tom-chocolate-para-cabelo/p/MLB21823946", "36.99")</f>
         <v/>
       </c>
       <c r="F12">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/casting-creme-gloss---coloracao-nutri-brilho-sem-amonia---chocolate-535-935322421/p", "37.07")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/casting-creme-gloss---coloracao-nutri-brilho-sem-amonia---chocolate-535-935322421/p", "36.04")</f>
         <v/>
       </c>
       <c r="G12">
@@ -838,7 +838,7 @@
         <v/>
       </c>
       <c r="H12" t="n">
-        <v>37.722</v>
+        <v>34.098</v>
       </c>
     </row>
     <row r="13">
@@ -867,11 +867,11 @@
         <v/>
       </c>
       <c r="G13">
-        <f>HYPERLINK("https://www.drogaraia.com.br/imedia-coloracao-permanente-6-66-vermelho-acetinado-47g.html", "30.19")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/imedia-coloracao-permanente-6-66-vermelho-acetinado-47g.html", "30.39")</f>
         <v/>
       </c>
       <c r="H13" t="n">
-        <v>31.384</v>
+        <v>31.424</v>
       </c>
     </row>
     <row r="14">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="E14">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/tintura-imedia-excellence-loreal-paris-sem-amnia-2u-preto/p/MLB33404767", "44.46")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/tintura-imedia-excellence-loreal-paris-sem-amnia-2u-preto/p/MLB33404767", "34.59")</f>
         <v/>
       </c>
       <c r="F14">
@@ -905,7 +905,7 @@
         <v/>
       </c>
       <c r="H14" t="n">
-        <v>35.0825</v>
+        <v>32.615</v>
       </c>
     </row>
     <row r="15">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="C15">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07G844YQ3", "25.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07G844YQ3", "27.68")</f>
         <v/>
       </c>
       <c r="D15">
@@ -930,7 +930,7 @@
         <v/>
       </c>
       <c r="F15">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/tintura-garnier-nutrisse-10-preto-onix/p", "18.79")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/tintura-garnier-nutrisse-10-preto-onix/p", "19.39")</f>
         <v/>
       </c>
       <c r="G15">
@@ -938,7 +938,7 @@
         <v/>
       </c>
       <c r="H15" t="n">
-        <v>24.1</v>
+        <v>24.558</v>
       </c>
     </row>
     <row r="16">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="C16">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07LFGQSJX", "41.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07LFGQSJX", "43.49")</f>
         <v/>
       </c>
       <c r="D16" t="inlineStr">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="E16">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/surya-brasil-henna-creme-castanho-claro-70ml/p/MLB19145364", "47.99")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/surya-brasil-henna-creme-castanho-claro-70ml/p/MLB19145364", "42.90")</f>
         <v/>
       </c>
       <c r="F16">
@@ -972,7 +972,7 @@
         <v/>
       </c>
       <c r="H16" t="n">
-        <v>44.2425</v>
+        <v>43.345</v>
       </c>
     </row>
     <row r="17">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="C17">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07FHH8GRD", "19.36")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07FHH8GRD", "21.89")</f>
         <v/>
       </c>
       <c r="D17">
@@ -997,15 +997,15 @@
         <v/>
       </c>
       <c r="F17">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/tintura-soft-color-castanho-claro-50/p", "23.69")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/tintura-soft-color-castanho-claro-50/p", "24.49")</f>
         <v/>
       </c>
       <c r="G17">
-        <f>HYPERLINK("https://www.drogaraia.com.br/soft-color-castanho-claro-n50.html", "23.69")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/soft-color-castanho-claro-n50.html", "25.09")</f>
         <v/>
       </c>
       <c r="H17" t="n">
-        <v>31.106</v>
+        <v>32.05200000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,17 @@
           <t>Kit Descolorante Banho de Lua com 1 óleo protetor corporal + 1 pó descolorante + 1 água oxigenada</t>
         </is>
       </c>
-      <c r="C18">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B077C2XYS6", "16.48")</f>
-        <v/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>indisp.</t>
+        </is>
       </c>
       <c r="D18">
         <f>HYPERLINK("https://www.epocacosmeticos.com.br/corpo-dourado-banho-de-lua---kit-pratico-pelos-dourados-tradicional--6-itens--87798/p", "39.90")</f>
         <v/>
       </c>
       <c r="E18">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/kit-clareador-de-pelos-descolorante-lightner-banho-de-lua/p/MLB21207894", "30.89")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/kit-clareador-de-pelos-descolorante-lightner-banho-de-lua/p/MLB21207894", "29.99")</f>
         <v/>
       </c>
       <c r="F18">
@@ -1038,7 +1039,7 @@
         <v/>
       </c>
       <c r="H18" t="n">
-        <v>29.196</v>
+        <v>32.15</v>
       </c>
     </row>
     <row r="19">
@@ -1051,7 +1052,7 @@
         </is>
       </c>
       <c r="C19">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07F26PL92", "15.95")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07F26PL92", "15.76")</f>
         <v/>
       </c>
       <c r="D19" t="inlineStr">
@@ -1065,15 +1066,15 @@
         </is>
       </c>
       <c r="F19">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/kit-clareador-biocolor-com-quitosana/p", "16.48")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/kit-clareador-biocolor-com-quitosana/p", "16.39")</f>
         <v/>
       </c>
       <c r="G19">
-        <f>HYPERLINK("https://www.drogaraia.com.br/biocolor-descolorante-com-quitosan-kit.html", "16.48")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/biocolor-descolorante-com-quitosan-kit.html", "17.09")</f>
         <v/>
       </c>
       <c r="H19" t="n">
-        <v>16.30333333333333</v>
+        <v>16.41333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -1086,7 +1087,7 @@
         </is>
       </c>
       <c r="C20">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07H113TPQ", "36.40")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07H113TPQ", "35.06")</f>
         <v/>
       </c>
       <c r="D20">
@@ -1094,19 +1095,19 @@
         <v/>
       </c>
       <c r="E20">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/oleo-finalizador-extraordinario-tratamento-sublime-nutrico-100ml-elseve/p/MLB26080271", "24.02")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/oleo-finalizador-extraordinario-tratamento-sublime-nutrico-100ml-elseve/p/MLB26080271", "35.06")</f>
         <v/>
       </c>
       <c r="F20">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/oleo-capilar-extraordinario-elseve-loreal-paris-feminino-100ml/p", "38.24")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/oleo-capilar-extraordinario-elseve-loreal-paris-feminino-100ml/p", "37.99")</f>
         <v/>
       </c>
       <c r="G20">
-        <f>HYPERLINK("https://www.drogaraia.com.br/elseve-oleo-para-tratamento-capilar-extraordinario-100ml.html", "53.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/elseve-oleo-para-tratamento-capilar-extraordinario-100ml.html", "37.99")</f>
         <v/>
       </c>
       <c r="H20" t="n">
-        <v>37.91</v>
+        <v>36.60000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1119,7 +1120,7 @@
         </is>
       </c>
       <c r="C21">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B077C3VFR5", "35.89")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B077C3VFR5", "36.89")</f>
         <v/>
       </c>
       <c r="D21">
@@ -1136,11 +1137,11 @@
         <v/>
       </c>
       <c r="G21">
-        <f>HYPERLINK("https://www.drogaraia.com.br/charming-laque-spray-jato-seco-ifxacao-extra-forte-com-400ml.html", "63.11")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/charming-laque-spray-jato-seco-ifxacao-extra-forte-com-400ml.html", "40.19")</f>
         <v/>
       </c>
       <c r="H21" t="n">
-        <v>50.02249999999999</v>
+        <v>44.5425</v>
       </c>
     </row>
     <row r="22">
@@ -1153,15 +1154,15 @@
         </is>
       </c>
       <c r="C22">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07LFGWRC7", "28.59")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07LFGWRC7", "23.99")</f>
         <v/>
       </c>
       <c r="D22">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/shampoo-anticaspa-clear-men-ice-cool-menthol-400ml-83846/p", "28.99")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/shampoo-anticaspa-clear-men-ice-cool-menthol-400ml-83846/p", "26.99")</f>
         <v/>
       </c>
       <c r="E22">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/shampoo-ice-cool-mentol-clear-400ml/p/MLB23738145", "30.72")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/shampoo-ice-cool-mentol-clear-400ml/p/MLB23738145", "25.15")</f>
         <v/>
       </c>
       <c r="F22">
@@ -1173,7 +1174,7 @@
         <v/>
       </c>
       <c r="H22" t="n">
-        <v>26.586</v>
+        <v>24.152</v>
       </c>
     </row>
     <row r="23">
@@ -1186,7 +1187,7 @@
         </is>
       </c>
       <c r="C23">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0BGJ5RB67", "53.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0BGJ5RB67", "43.79")</f>
         <v/>
       </c>
       <c r="D23">
@@ -1194,7 +1195,7 @@
         <v/>
       </c>
       <c r="E23">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/encaracolando-a-juba-creme-de-pentear-500ml-widi-care/p/MLB19314306", "41.08")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/encaracolando-a-juba-creme-de-pentear-500ml-widi-care/p/MLB19314306", "53.92")</f>
         <v/>
       </c>
       <c r="F23">
@@ -1202,11 +1203,11 @@
         <v/>
       </c>
       <c r="G23">
-        <f>HYPERLINK("https://www.drogaraia.com.br/widi-care-creme-de-pentear-encaracolando-a-juba-500ml.html", "64.62")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/widi-care-creme-de-pentear-encaracolando-a-juba-500ml.html", "43.79")</f>
         <v/>
       </c>
       <c r="H23" t="n">
-        <v>53.258</v>
+        <v>49.638</v>
       </c>
     </row>
     <row r="24">
@@ -1227,7 +1228,7 @@
         <v/>
       </c>
       <c r="E24">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-termico-tresemme-110ml/p/MLB47684864", "42.22")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-termico-tresemme-110ml/p/MLB47684864", "35.90")</f>
         <v/>
       </c>
       <c r="F24">
@@ -1239,7 +1240,7 @@
         <v/>
       </c>
       <c r="H24" t="n">
-        <v>30.7</v>
+        <v>29.436</v>
       </c>
     </row>
     <row r="25">
@@ -1252,7 +1253,7 @@
         </is>
       </c>
       <c r="C25">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0B4358Z89", "82.78")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0B4358Z89", "88.94")</f>
         <v/>
       </c>
       <c r="D25">
@@ -1264,7 +1265,7 @@
         <v/>
       </c>
       <c r="F25">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/shampoo-anticaspa-ducray-kelual-ds-100ml/p", "77.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/shampoo-anticaspa-ducray-kelual-ds-100ml/p", "89.99")</f>
         <v/>
       </c>
       <c r="G25">
@@ -1272,7 +1273,7 @@
         <v/>
       </c>
       <c r="H25" t="n">
-        <v>89.05199999999999</v>
+        <v>92.684</v>
       </c>
     </row>
     <row r="26">
@@ -1293,19 +1294,19 @@
         <v/>
       </c>
       <c r="E26">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-de-pentear-elseve-cachos-dos-sonhos-250ml/p/MLB19792948", "17.99")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-de-pentear-elseve-cachos-dos-sonhos-250ml/p/MLB19792948", "23.09")</f>
         <v/>
       </c>
       <c r="F26">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-de-pentear-elseve-cachos-dos-sonhos-250ml/p", "25.49")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-de-pentear-elseve-cachos-dos-sonhos-250ml/p", "18.48")</f>
         <v/>
       </c>
       <c r="G26">
-        <f>HYPERLINK("https://www.drogaraia.com.br/elseve-creme-para-pentear-cachos-longos-dos-sonhos-250ml.html", "25.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/elseve-creme-para-pentear-cachos-longos-dos-sonhos-250ml.html", "18.48")</f>
         <v/>
       </c>
       <c r="H26" t="n">
-        <v>20.724</v>
+        <v>18.84</v>
       </c>
     </row>
     <row r="27">
@@ -1331,7 +1332,7 @@
         </is>
       </c>
       <c r="F27">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/shampoo-anticaspa-vichy-dercos-ds-300g/p", "99.90")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/shampoo-anticaspa-vichy-dercos-ds-300g/p", "129.90")</f>
         <v/>
       </c>
       <c r="G27">
@@ -1339,7 +1340,7 @@
         <v/>
       </c>
       <c r="H27" t="n">
-        <v>100.4</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="28">
@@ -1352,7 +1353,7 @@
         </is>
       </c>
       <c r="C28">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07FLKGK54", "36.60")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07FLKGK54", "32.39")</f>
         <v/>
       </c>
       <c r="D28">
@@ -1365,15 +1366,15 @@
         </is>
       </c>
       <c r="F28">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/shampoo-tio-nacho-antiqueda-engrossador-415ml-genomma/p", "39.59")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/shampoo-tio-nacho-antiqueda-engrossador-415ml-genomma/p", "35.79")</f>
         <v/>
       </c>
       <c r="G28">
-        <f>HYPERLINK("https://www.drogaraia.com.br/shampoo-tio-nacho-antiqueda-engrossador.html", "43.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/shampoo-tio-nacho-antiqueda-engrossador.html", "35.79")</f>
         <v/>
       </c>
       <c r="H28" t="n">
-        <v>39.6775</v>
+        <v>35.625</v>
       </c>
     </row>
     <row r="29">
@@ -1419,7 +1420,7 @@
         </is>
       </c>
       <c r="C30">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B09CZZWKZL", "85.80")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B09CZZWKZL", "89.48")</f>
         <v/>
       </c>
       <c r="D30">
@@ -1431,16 +1432,17 @@
           <t>indisp.</t>
         </is>
       </c>
-      <c r="F30">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/kit-darrow-shampoo-anticaspa-intensivo-doctar-plus-240ml-agua-micelar-dermatologica-peles-oleosas-100ml/p", "95.78")</f>
-        <v/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>indisp.</t>
+        </is>
       </c>
       <c r="G30">
         <f>HYPERLINK("https://www.drogaraia.com.br/darrow-shampoo-doctar-plus-240ml.html", "114.99")</f>
         <v/>
       </c>
       <c r="H30" t="n">
-        <v>120.6175</v>
+        <v>130.1233333333333</v>
       </c>
     </row>
     <row r="31">
@@ -1453,7 +1455,7 @@
         </is>
       </c>
       <c r="C31">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07GTLKMF5", "27.74")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07GTLKMF5", "23.90")</f>
         <v/>
       </c>
       <c r="D31">
@@ -1465,7 +1467,7 @@
         <v/>
       </c>
       <c r="F31">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/mascara-capilar-lola-dream-cream-200g/p", "41.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/mascara-capilar-lola-dream-cream-200g/p", "30.19")</f>
         <v/>
       </c>
       <c r="G31">
@@ -1473,7 +1475,7 @@
         <v/>
       </c>
       <c r="H31" t="n">
-        <v>34.714</v>
+        <v>31.586</v>
       </c>
     </row>
     <row r="32">
@@ -1486,7 +1488,7 @@
         </is>
       </c>
       <c r="C32">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0DFMMGFWK", "48.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0DFMMGFWK", "49.89")</f>
         <v/>
       </c>
       <c r="D32">
@@ -1498,15 +1500,15 @@
         <v/>
       </c>
       <c r="F32">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/fluido-modelador-condicionante-professional-cadiveu-essentials-maxi-waves-200ml/p", "59.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/fluido-modelador-condicionante-professional-cadiveu-essentials-maxi-waves-200ml/p", "41.15")</f>
         <v/>
       </c>
       <c r="G32">
-        <f>HYPERLINK("https://www.drogaraia.com.br/cadiveu-professional-fluido-modelador-condicionante-maxi-waves-200ml.html", "59.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/cadiveu-professional-fluido-modelador-condicionante-maxi-waves-200ml.html", "47.39")</f>
         <v/>
       </c>
       <c r="H32" t="n">
-        <v>49.066</v>
+        <v>42.976</v>
       </c>
     </row>
     <row r="33">
@@ -1528,19 +1530,19 @@
         </is>
       </c>
       <c r="E33">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/shampoo-head-shoulders-anticoceira-400-ml/p/MLB19176023", "21.60")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/shampoo-head-shoulders-anticoceira-400-ml/p/MLB19176023", "21.90")</f>
         <v/>
       </c>
       <c r="F33">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/shampoo-feminino-head-shoulders-anticaspa-anticoceira-400ml/p", "24.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/shampoo-feminino-head-shoulders-anticaspa-anticoceira-400ml/p", "20.74")</f>
         <v/>
       </c>
       <c r="G33">
-        <f>HYPERLINK("https://www.drogaraia.com.br/head-shampoo-anti-coceira-400-ml.html", "29.90")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/head-shampoo-anti-coceira-400-ml.html", "24.99")</f>
         <v/>
       </c>
       <c r="H33" t="n">
-        <v>25.87</v>
+        <v>23.655</v>
       </c>
     </row>
     <row r="34">
@@ -1553,7 +1555,7 @@
         </is>
       </c>
       <c r="C34">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07S45ZJ47", "29.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07S45ZJ47", "31.90")</f>
         <v/>
       </c>
       <c r="D34">
@@ -1561,7 +1563,7 @@
         <v/>
       </c>
       <c r="E34">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/loco-hidratante-la-luna-240-ml-ciclo/p/MLB26243828", "26.91")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/loco-hidratante-la-luna-240-ml-ciclo/p/MLB26243828", "27.15")</f>
         <v/>
       </c>
       <c r="F34">
@@ -1573,7 +1575,7 @@
         <v/>
       </c>
       <c r="H34" t="n">
-        <v>34.352</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="35">
@@ -1687,7 +1689,7 @@
         </is>
       </c>
       <c r="C38">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C2F53DZB", "56.61")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C2F53DZB", "63.99")</f>
         <v/>
       </c>
       <c r="D38">
@@ -1703,11 +1705,11 @@
         <v/>
       </c>
       <c r="G38">
-        <f>HYPERLINK("https://www.drogaraia.com.br/eucerin-ph5-gel-creme-200ml.html", "45.49")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/eucerin-ph5-gel-creme-200ml.html", "69.90")</f>
         <v/>
       </c>
       <c r="H38" t="n">
-        <v>65.878</v>
+        <v>72.23600000000002</v>
       </c>
     </row>
     <row r="39">
@@ -1737,11 +1739,11 @@
         <v/>
       </c>
       <c r="G39">
-        <f>HYPERLINK("https://www.drogaraia.com.br/ureadin-podos-gel-oil-sem-perfume-75ml.html", "70.98")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/ureadin-podos-gel-oil-sem-perfume-75ml.html", "69.98")</f>
         <v/>
       </c>
       <c r="H39" t="n">
-        <v>69.81</v>
+        <v>69.56</v>
       </c>
     </row>
     <row r="40">
@@ -1754,7 +1756,7 @@
         </is>
       </c>
       <c r="C40">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B09V542XVS", "168.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B09V542XVS", "213.75")</f>
         <v/>
       </c>
       <c r="D40">
@@ -1774,7 +1776,7 @@
         <v/>
       </c>
       <c r="H40" t="n">
-        <v>207.524</v>
+        <v>216.476</v>
       </c>
     </row>
     <row r="41">
@@ -1787,7 +1789,7 @@
         </is>
       </c>
       <c r="C41">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0D6SGVZSV", "78.00")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0D6SGVZSV", "67.99")</f>
         <v/>
       </c>
       <c r="D41">
@@ -1795,19 +1797,19 @@
         <v/>
       </c>
       <c r="E41">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-nutritivo-dermatologico-peles-extra-secas-darrow/p/MLB38422402", "88.44")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-nutritivo-dermatologico-peles-extra-secas-darrow/p/MLB38422402", "74.99")</f>
         <v/>
       </c>
       <c r="F41">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-corporal-nutritivo-darrow-nutriol-intensivo-400g/p", "93.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-corporal-nutritivo-darrow-nutriol-intensivo-400g/p", "79.99")</f>
         <v/>
       </c>
       <c r="G41">
-        <f>HYPERLINK("https://www.drogaraia.com.br/nutriol-intensivo-creme-nutritivo-pele-extra-seca-400g-1002590.html", "99.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/nutriol-intensivo-creme-nutritivo-pele-extra-seca-400g-1002590.html", "79.99")</f>
         <v/>
       </c>
       <c r="H41" t="n">
-        <v>90.46400000000001</v>
+        <v>78.97200000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1861,7 +1863,7 @@
         <v/>
       </c>
       <c r="E43">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/loco-hidratante-principia-c-10-ureia-lh-01-200ml/p/MLB24764615", "39.00")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/loco-hidratante-corporal-principia-c-10-ureia-lh-01-200ml/p/MLB24764615", "39.00")</f>
         <v/>
       </c>
       <c r="F43">
@@ -1886,7 +1888,7 @@
         </is>
       </c>
       <c r="C44">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07MJD5B96", "47.24")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07MJD5B96", "43.90")</f>
         <v/>
       </c>
       <c r="D44">
@@ -1907,7 +1909,7 @@
         <v/>
       </c>
       <c r="H44" t="n">
-        <v>47.4175</v>
+        <v>46.5825</v>
       </c>
     </row>
     <row r="45">
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="C45">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07Q6FG1T6", "155.35")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07Q6FG1T6", "148.90")</f>
         <v/>
       </c>
       <c r="D45">
@@ -1941,7 +1943,7 @@
         <v/>
       </c>
       <c r="H45" t="n">
-        <v>155.7625</v>
+        <v>154.15</v>
       </c>
     </row>
     <row r="46">
@@ -1967,7 +1969,7 @@
         </is>
       </c>
       <c r="F46">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/vichy-normaderm-sabonete-70g-loreal-brasil/p", "44.39")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/vichy-normaderm-sabonete-70g-loreal-brasil/p", "45.49")</f>
         <v/>
       </c>
       <c r="G46">
@@ -1975,7 +1977,7 @@
         <v/>
       </c>
       <c r="H46" t="n">
-        <v>51.44</v>
+        <v>51.715</v>
       </c>
     </row>
     <row r="47">
@@ -1988,7 +1990,7 @@
         </is>
       </c>
       <c r="C47">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0BM55YQLM", "20.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0BM55YQLM", "50.21")</f>
         <v/>
       </c>
       <c r="D47">
@@ -1996,19 +1998,19 @@
         <v/>
       </c>
       <c r="E47">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/limpador-enzimatico-em-po-sallve-30g-papaina-argila-branca/p/MLB26645940", "70.53")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/limpador-enzimatico-em-po-sallve-30g-papaina-argila-branca/p/MLB26645940", "70.52")</f>
         <v/>
       </c>
       <c r="F47">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/limpador-facial-sallve-po-enzimatico-sem-fragrancia/p", "74.48")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/limpador-facial-sallve-po-enzimatico-sem-fragrancia/p", "70.98")</f>
         <v/>
       </c>
       <c r="G47">
-        <f>HYPERLINK("https://www.drogaraia.com.br/sallve-limpador-enzimatico-em-po-30g.html", "74.48")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/sallve-limpador-enzimatico-em-po-30g.html", "70.98")</f>
         <v/>
       </c>
       <c r="H47" t="n">
-        <v>62.926</v>
+        <v>67.386</v>
       </c>
     </row>
     <row r="48">
@@ -2021,7 +2023,7 @@
         </is>
       </c>
       <c r="C48">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B09323P3RV", "81.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B09323P3RV", "79.90")</f>
         <v/>
       </c>
       <c r="D48">
@@ -2029,11 +2031,11 @@
         <v/>
       </c>
       <c r="E48">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/gel-de-limpeza-profunda-avene-cleanance-intense-300g/p/MLB21003418", "73.40")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/gel-de-limpeza-profunda-avene-cleanance-intense-300g/p/MLB21003418", "67.99")</f>
         <v/>
       </c>
       <c r="F48">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/gel-de-limpeza-profunda-avene-cleanance-intense-300g/p", "78.59")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/gel-de-limpeza-profunda-avene-cleanance-intense-300g/p", "79.90")</f>
         <v/>
       </c>
       <c r="G48">
@@ -2041,7 +2043,7 @@
         <v/>
       </c>
       <c r="H48" t="n">
-        <v>73.374</v>
+        <v>72.154</v>
       </c>
     </row>
     <row r="49">
@@ -2120,7 +2122,7 @@
         </is>
       </c>
       <c r="C51">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B08BLTZ9YB", "53.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B08BLTZ9YB", "54.62")</f>
         <v/>
       </c>
       <c r="D51">
@@ -2132,15 +2134,15 @@
         <v/>
       </c>
       <c r="F51">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/hidratante-labial-profuse-nutrel-reparador-7--5g/p", "49.59")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/hidratante-labial-profuse-nutrel-reparador-7--5g/p", "43.79")</f>
         <v/>
       </c>
       <c r="G51">
-        <f>HYPERLINK("https://www.drogaraia.com.br/profuse-nutrel-lip-repair-7-5g.html", "52.19")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/profuse-nutrel-lip-repair-7-5g.html", "52.59")</f>
         <v/>
       </c>
       <c r="H51" t="n">
-        <v>59.752</v>
+        <v>58.81600000000001</v>
       </c>
     </row>
     <row r="52">
@@ -2161,19 +2163,19 @@
         <v/>
       </c>
       <c r="E52">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/hidratante-labial-epidrat-labios-mantecorp-fps-30-com-55g/p/MLB41206752", "228.00")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/hidratante-labial-epidrat-labios-mantecorp-fps-30-com-55g/p/MLB41206752", "221.16")</f>
         <v/>
       </c>
       <c r="F52">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/hidratante-labial-epidrat-fps-30-55g/p", "68.19")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/hidratante-labial-epidrat-fps-30-55g/p", "69.79")</f>
         <v/>
       </c>
       <c r="G52">
-        <f>HYPERLINK("https://www.drogaraia.com.br/epidrat-labios-tubo-5-5-gramas.html", "68.39")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/epidrat-labios-tubo-5-5-gramas.html", "69.79")</f>
         <v/>
       </c>
       <c r="H52" t="n">
-        <v>102.47</v>
+        <v>101.702</v>
       </c>
     </row>
     <row r="53">
@@ -2202,11 +2204,11 @@
         <v/>
       </c>
       <c r="G53">
-        <f>HYPERLINK("https://www.drogaraia.com.br/bepantol-derma-noturno-locao-facial-50ml.html", "58.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/bepantol-derma-noturno-locao-facial-50ml.html", "59.39")</f>
         <v/>
       </c>
       <c r="H53" t="n">
-        <v>58.49400000000001</v>
+        <v>58.574</v>
       </c>
     </row>
     <row r="54">
@@ -2235,11 +2237,11 @@
         <v/>
       </c>
       <c r="G54">
-        <f>HYPERLINK("https://www.drogaraia.com.br/actine-gel-de-limpeza-oil-control-400g.html", "89.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/actine-gel-de-limpeza-oil-control-400g.html", "71.99")</f>
         <v/>
       </c>
       <c r="H54" t="n">
-        <v>85.34200000000001</v>
+        <v>81.742</v>
       </c>
     </row>
     <row r="55">
@@ -2252,11 +2254,11 @@
         </is>
       </c>
       <c r="C55">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07KYVSKWR", "74.06")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07KYVSKWR", "76.41")</f>
         <v/>
       </c>
       <c r="D55">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/gel-de-limpeza-la-roche-posay-refil-effaclar-concentrado/p", "72.17")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/gel-de-limpeza-la-roche-posay-refil-effaclar-concentrado/p", "64.90")</f>
         <v/>
       </c>
       <c r="E55">
@@ -2272,7 +2274,7 @@
         <v/>
       </c>
       <c r="H55" t="n">
-        <v>78.61800000000001</v>
+        <v>77.63399999999999</v>
       </c>
     </row>
     <row r="56">
@@ -2301,11 +2303,11 @@
         <v/>
       </c>
       <c r="G56">
-        <f>HYPERLINK("https://www.drogaraia.com.br/cetaphil-pro-ar-calm-creme-hidratante-facial-noite-50g.html", "124.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/cetaphil-pro-ar-calm-creme-hidratante-facial-noite-50g.html", "121.49")</f>
         <v/>
       </c>
       <c r="H56" t="n">
-        <v>115.646</v>
+        <v>114.946</v>
       </c>
     </row>
     <row r="57">
@@ -2318,7 +2320,7 @@
         </is>
       </c>
       <c r="C57">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07R3DVL7H", "78.75")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07R3DVL7H", "62.60")</f>
         <v/>
       </c>
       <c r="D57">
@@ -2338,7 +2340,7 @@
         <v/>
       </c>
       <c r="H57" t="n">
-        <v>92.68800000000002</v>
+        <v>89.458</v>
       </c>
     </row>
     <row r="58">
@@ -2386,7 +2388,7 @@
         </is>
       </c>
       <c r="C59">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0B7RQC9N4", "72.48")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0B7RQC9N4", "80.58")</f>
         <v/>
       </c>
       <c r="D59">
@@ -2398,7 +2400,7 @@
         <v/>
       </c>
       <c r="F59">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/gel-antiacne-cerave-acne-control-40g/p", "72.48")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/gel-antiacne-cerave-acne-control-40g/p", "93.99")</f>
         <v/>
       </c>
       <c r="G59">
@@ -2406,7 +2408,7 @@
         <v/>
       </c>
       <c r="H59" t="n">
-        <v>82.242</v>
+        <v>88.16400000000002</v>
       </c>
     </row>
     <row r="60">
@@ -2419,7 +2421,7 @@
         </is>
       </c>
       <c r="C60">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B09K2N9GS7", "21.49")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B09K2N9GS7", "20.42")</f>
         <v/>
       </c>
       <c r="D60">
@@ -2440,7 +2442,7 @@
         <v/>
       </c>
       <c r="H60" t="n">
-        <v>20.7175</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="61">
@@ -2453,15 +2455,15 @@
         </is>
       </c>
       <c r="C61">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B09K2RWWVX", "21.49")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B09K2RWWVX", "20.42")</f>
         <v/>
       </c>
       <c r="D61">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/desodorante-aerossol-antitranspirante-dove-men-care-invisible-dry-masculino-72-horas-150ml-101068/p", "16.19")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/desodorante-aerossol-antitranspirante-dove-men-care-invisible-dry-masculino-72-horas-150ml-101068/p", "16.59")</f>
         <v/>
       </c>
       <c r="E61">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/dove-mencare-invisible-dry-antitranspirante-250-ml/p/MLB19485019", "21.49")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/dove-mencare-invisible-dry-antitranspirante-250-ml/p/MLB19485019", "22.94")</f>
         <v/>
       </c>
       <c r="F61">
@@ -2473,7 +2475,7 @@
         <v/>
       </c>
       <c r="H61" t="n">
-        <v>20.712</v>
+        <v>20.868</v>
       </c>
     </row>
     <row r="62">
@@ -2498,15 +2500,15 @@
         <v/>
       </c>
       <c r="F62">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/desodorante-roll-on-perspirex-20ml-daudt/p", "97.49")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/desodorante-roll-on-perspirex-20ml-daudt/p", "97.99")</f>
         <v/>
       </c>
       <c r="G62">
-        <f>HYPERLINK("https://www.drogaraia.com.br/perspirex-antiperspirante-roll-on-20ml.html", "102.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/perspirex-antiperspirante-roll-on-20ml.html", "99.90")</f>
         <v/>
       </c>
       <c r="H62" t="n">
-        <v>92.13000000000001</v>
+        <v>91.61200000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2528,11 +2530,11 @@
         </is>
       </c>
       <c r="E63">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/desodorante-antitranspirante-secret-powder-protect-cotton-45g/p/MLB24526645", "23.59")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/desodorante-antitranspirante-secret-powder-protect-cotton-45g/p/MLB24526645", "21.44")</f>
         <v/>
       </c>
       <c r="F63">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/antitranspirante-gel-invisible-berry-secret-45g/p", "20.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/antitranspirante-gel-invisible-berry-secret-45g/p", "29.99")</f>
         <v/>
       </c>
       <c r="G63">
@@ -2540,7 +2542,7 @@
         <v/>
       </c>
       <c r="H63" t="n">
-        <v>23.095</v>
+        <v>24.8075</v>
       </c>
     </row>
     <row r="64">
@@ -2570,11 +2572,11 @@
         <v/>
       </c>
       <c r="G64">
-        <f>HYPERLINK("https://www.drogaraia.com.br/perspirex-comfort-roll-on-20ml.html", "101.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/perspirex-comfort-roll-on-20ml.html", "96.99")</f>
         <v/>
       </c>
       <c r="H64" t="n">
-        <v>96.69500000000001</v>
+        <v>95.44500000000001</v>
       </c>
     </row>
     <row r="65">
@@ -2595,11 +2597,11 @@
         <v/>
       </c>
       <c r="E65">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/ban-desodorante-roll-on-103ml-unscented/p/MLB23519591", "74.85")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/ban-desodorante-roll-on-103ml-unscented/p/MLB23519591", "56.67")</f>
         <v/>
       </c>
       <c r="F65">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/desodorante-roll-on-symple-clean-sem-perfume-ban-103ml-mcd-miami/p", "65.98")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/desodorante-roll-on-symple-clean-sem-perfume-ban-103ml-mcd-miami/p", "67.19")</f>
         <v/>
       </c>
       <c r="G65">
@@ -2607,7 +2609,7 @@
         <v/>
       </c>
       <c r="H65" t="n">
-        <v>63.084</v>
+        <v>59.69</v>
       </c>
     </row>
     <row r="66">
@@ -2629,7 +2631,7 @@
         <v/>
       </c>
       <c r="E66">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/ban-desodorante-solido-73g-unscented-fragrncia-lavanda/p/MLB19765454", "47.94")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/ban-desodorante-solido-73g-unscented-fragrncia-lavanda/p/MLB19765454", "55.06")</f>
         <v/>
       </c>
       <c r="F66">
@@ -2641,7 +2643,7 @@
         <v/>
       </c>
       <c r="H66" t="n">
-        <v>48.455</v>
+        <v>50.235</v>
       </c>
     </row>
     <row r="67">
@@ -2670,11 +2672,11 @@
         <v/>
       </c>
       <c r="G67">
-        <f>HYPERLINK("https://www.drogaraia.com.br/ban-classic-invisible-desodorante-solido-powder-fresh-73g.html", "44.79")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/ban-classic-invisible-desodorante-solido-powder-fresh-73g.html", "41.79")</f>
         <v/>
       </c>
       <c r="H67" t="n">
-        <v>51.57000000000001</v>
+        <v>50.97</v>
       </c>
     </row>
     <row r="68">
@@ -2722,7 +2724,7 @@
         </is>
       </c>
       <c r="C69">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B081FJH9F5", "65.79")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B081FJH9F5", "56.75")</f>
         <v/>
       </c>
       <c r="D69">
@@ -2735,7 +2737,7 @@
         </is>
       </c>
       <c r="F69">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/desodorante-alva-kristall-deo-stick-sensitive-vegano-60g/p", "65.39")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/desodorante-alva-kristall-deo-stick-sensitive-vegano-60g/p", "68.79")</f>
         <v/>
       </c>
       <c r="G69">
@@ -2743,7 +2745,7 @@
         <v/>
       </c>
       <c r="H69" t="n">
-        <v>68.92</v>
+        <v>67.51000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="C71">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B01KLNZSUM", "18.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B01KLNZSUM", "17.99")</f>
         <v/>
       </c>
       <c r="D71" t="inlineStr">
@@ -2811,7 +2813,7 @@
         <v/>
       </c>
       <c r="H71" t="n">
-        <v>18.96</v>
+        <v>18.62666666666667</v>
       </c>
     </row>
     <row r="72">
@@ -2824,7 +2826,7 @@
         </is>
       </c>
       <c r="C72">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B01M36HZHI", "24.69")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B01M36HZHI", "25.11")</f>
         <v/>
       </c>
       <c r="D72" t="inlineStr">
@@ -2846,7 +2848,7 @@
         <v/>
       </c>
       <c r="H72" t="n">
-        <v>25.76</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="73">
@@ -2859,7 +2861,7 @@
         </is>
       </c>
       <c r="C73">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B08937VBT7", "19.33")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B08937VBT7", "26.91")</f>
         <v/>
       </c>
       <c r="D73" t="inlineStr">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="E73">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-dental-rapido-alivio-sensodyne-proteco-duradoura-para-dentes-e-gengivais-sensiveis-leve-3-unidades-e-pague-2-90g-cada/p/MLB17823992", "24.73")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-dental-rapido-alivio-sensodyne-proteco-duradoura-para-dentes-e-gengivais-sensiveis-leve-3-unidades-e-pague-2-90g-cada/p/MLB17823992", "24.29")</f>
         <v/>
       </c>
       <c r="F73">
@@ -2880,7 +2882,7 @@
         <v/>
       </c>
       <c r="H73" t="n">
-        <v>25.965</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="74">
@@ -2902,7 +2904,7 @@
         </is>
       </c>
       <c r="E74">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/pasta-de-dentes-oral-b-3d-white-brilliant-fresh-em-creme-pacote-x-3-70-g/p/MLB17823753", "23.54")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/pasta-de-dentes-oral-b-3d-white-brilliant-fresh-em-creme-pacote-x-3-70-g/p/MLB17823753", "21.51")</f>
         <v/>
       </c>
       <c r="F74">
@@ -2914,7 +2916,7 @@
         <v/>
       </c>
       <c r="H74" t="n">
-        <v>21.6375</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="75">
@@ -2927,7 +2929,7 @@
         </is>
       </c>
       <c r="C75">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07FRKJRRP", "39.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07FRKJRRP", "39.32")</f>
         <v/>
       </c>
       <c r="D75" t="inlineStr">
@@ -2936,7 +2938,7 @@
         </is>
       </c>
       <c r="E75">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/enxaguante-bucal-antisseptico-cool-mint-zero-alcool-refrescncia-suave-15l-listerine/p/MLB18393072", "39.90")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/enxaguante-bucal-antisseptico-cool-mint-zero-alcool-refrescncia-suave-15l-listerine/p/MLB18393072", "46.19")</f>
         <v/>
       </c>
       <c r="F75">
@@ -2948,7 +2950,7 @@
         <v/>
       </c>
       <c r="H75" t="n">
-        <v>42.945</v>
+        <v>44.3725</v>
       </c>
     </row>
     <row r="76">
@@ -2960,9 +2962,10 @@
           <t>Solução Antisséptica Bucal Periostat Sem Álcool com 250ml</t>
         </is>
       </c>
-      <c r="C76">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0DJ5SHWDV", "24.90")</f>
-        <v/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>indisp.</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2982,7 +2985,7 @@
         <v/>
       </c>
       <c r="H76" t="n">
-        <v>23.9125</v>
+        <v>23.58333333333333</v>
       </c>
     </row>
     <row r="77">
@@ -2995,7 +2998,7 @@
         </is>
       </c>
       <c r="C77">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0DTW1LFTS", "18.04")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0DTW1LFTS", "18.99")</f>
         <v/>
       </c>
       <c r="D77">
@@ -3003,7 +3006,7 @@
         <v/>
       </c>
       <c r="E77">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/enxaguante-bucal-cool-mint-500ml-listerine/p/MLB44975986", "26.15")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/enxaguante-bucal-cool-mint-500ml-listerine/p/MLB44975986", "18.99")</f>
         <v/>
       </c>
       <c r="F77">
@@ -3015,7 +3018,7 @@
         <v/>
       </c>
       <c r="H77" t="n">
-        <v>20.034</v>
+        <v>18.792</v>
       </c>
     </row>
     <row r="78">
@@ -3028,7 +3031,7 @@
         </is>
       </c>
       <c r="C78">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B079VW31SF", "9.89")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B079VW31SF", "11.29")</f>
         <v/>
       </c>
       <c r="D78">
@@ -3036,7 +3039,7 @@
         <v/>
       </c>
       <c r="E78">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/sabonete-liquido-creme-care-250ml-nivea/p/MLB17876114", "15.55")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/sabonete-liquido-creme-care-250ml-nivea/p/MLB17876114", "11.29")</f>
         <v/>
       </c>
       <c r="F78">
@@ -3048,7 +3051,7 @@
         <v/>
       </c>
       <c r="H78" t="n">
-        <v>13.048</v>
+        <v>12.476</v>
       </c>
     </row>
     <row r="79">
@@ -3095,7 +3098,7 @@
         </is>
       </c>
       <c r="C80">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07LFFGZ93", "18.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07LFFGZ93", "19.79")</f>
         <v/>
       </c>
       <c r="D80">
@@ -3108,15 +3111,15 @@
         </is>
       </c>
       <c r="F80">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/kit-sabonete-em-barra-dove-original-90g-6-unidades/p", "19.79")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/kit-sabonete-em-barra-dove-original-90g-6-unidades/p", "23.99")</f>
         <v/>
       </c>
       <c r="G80">
-        <f>HYPERLINK("https://www.drogaraia.com.br/dove-sabonete-em-barra-regular-leve-6-pague-5.html", "22.90")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/dove-sabonete-em-barra-regular-leve-6-pague-5.html", "19.90")</f>
         <v/>
       </c>
       <c r="H80" t="n">
-        <v>22.145</v>
+        <v>22.645</v>
       </c>
     </row>
     <row r="81">
@@ -3129,7 +3132,7 @@
         </is>
       </c>
       <c r="C81">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07GZRVDXV", "60.77")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07GZRVDXV", "109.99")</f>
         <v/>
       </c>
       <c r="D81">
@@ -3150,7 +3153,7 @@
         <v/>
       </c>
       <c r="H81" t="n">
-        <v>18.1675</v>
+        <v>30.4725</v>
       </c>
     </row>
     <row r="82">
@@ -3163,15 +3166,15 @@
         </is>
       </c>
       <c r="C82">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B079VPDDBF", "15.09")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B079VPDDBF", "13.74")</f>
         <v/>
       </c>
       <c r="D82">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/sabonete-liquido-nivea-frangipan-oil/p", "18.90")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/sabonete-liquido-nivea-frangipan-oil/p", "18.47")</f>
         <v/>
       </c>
       <c r="E82">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/nivea-sabonete-liquido-frangipani-oil-250ml/p/MLB17875868", "15.78")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/nivea-sabonete-liquido-frangipani-oil-250ml/p/MLB17875868", "15.42")</f>
         <v/>
       </c>
       <c r="F82">
@@ -3183,7 +3186,7 @@
         <v/>
       </c>
       <c r="H82" t="n">
-        <v>17.234</v>
+        <v>16.806</v>
       </c>
     </row>
     <row r="83">
@@ -3200,7 +3203,7 @@
         <v/>
       </c>
       <c r="D83">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/sabonete-em-barra-phebo-odor-de-rosas/p", "5.81")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/sabonete-em-barra-phebo-odor-de-rosas/p", "5.29")</f>
         <v/>
       </c>
       <c r="E83">
@@ -3217,7 +3220,7 @@
         <v/>
       </c>
       <c r="H83" t="n">
-        <v>8.279999999999999</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="84">
@@ -3230,7 +3233,7 @@
         </is>
       </c>
       <c r="C84">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0DHWBZ7QS", "6.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0DHWBZ7QS", "29.90")</f>
         <v/>
       </c>
       <c r="D84" t="inlineStr">
@@ -3252,7 +3255,7 @@
         <v/>
       </c>
       <c r="H84" t="n">
-        <v>8.960000000000001</v>
+        <v>16.59666666666667</v>
       </c>
     </row>
     <row r="85">
@@ -3265,7 +3268,7 @@
         </is>
       </c>
       <c r="C85">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B092G8V53J", "7.83")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B092G8V53J", "8.99")</f>
         <v/>
       </c>
       <c r="D85">
@@ -3285,7 +3288,7 @@
         <v/>
       </c>
       <c r="H85" t="n">
-        <v>9.492000000000001</v>
+        <v>9.724</v>
       </c>
     </row>
     <row r="86">
@@ -3332,7 +3335,7 @@
         </is>
       </c>
       <c r="C87">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CQKB4VMG", "34.11")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CQKB4VMG", "32.40")</f>
         <v/>
       </c>
       <c r="D87">
@@ -3344,15 +3347,15 @@
         <v/>
       </c>
       <c r="F87">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/elixir-capilar-prolongador-l-oreal-paris-elseve-glycolic-gloss-100ml/p", "39.19")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/elixir-capilar-prolongador-l-oreal-paris-elseve-glycolic-gloss-100ml/p", "38.39")</f>
         <v/>
       </c>
       <c r="G87">
-        <f>HYPERLINK("https://www.drogaraia.com.br/elseve-serum-capilar-glycoli-gloss-100ml.html", "53.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/elseve-serum-capilar-glycoli-gloss-100ml.html", "38.39")</f>
         <v/>
       </c>
       <c r="H87" t="n">
-        <v>39.46</v>
+        <v>35.838</v>
       </c>
     </row>
     <row r="88">
@@ -3373,7 +3376,7 @@
         <v/>
       </c>
       <c r="E88">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/mustela-cicastela-creme-reparador-hidratante-40ml/p/MLB38713737", "65.90")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/mustela-cicastela-creme-reparador-hidratante-40ml/p/MLB38713737", "76.99")</f>
         <v/>
       </c>
       <c r="F88">
@@ -3385,7 +3388,7 @@
         <v/>
       </c>
       <c r="H88" t="n">
-        <v>77.89200000000001</v>
+        <v>80.11</v>
       </c>
     </row>
     <row r="89">
@@ -3415,11 +3418,11 @@
         <v/>
       </c>
       <c r="G89">
-        <f>HYPERLINK("https://www.drogaraia.com.br/huggies-fralda-pants-natural-care-tamanho-g-hiper-60-unidades.html", "88.90")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/huggies-fralda-pants-natural-care-tamanho-g-hiper-60-unidades.html", "105.90")</f>
         <v/>
       </c>
       <c r="H89" t="n">
-        <v>86.4075</v>
+        <v>90.6575</v>
       </c>
     </row>
     <row r="90">
@@ -3440,7 +3443,7 @@
         <v/>
       </c>
       <c r="E90">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/shampoo-baby-regular-400ml-johnsons-baby/p/MLB19160770", "23.99")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/shampoo-baby-regular-400ml-johnsons-baby/p/MLB19160770", "21.90")</f>
         <v/>
       </c>
       <c r="F90">
@@ -3452,7 +3455,7 @@
         <v/>
       </c>
       <c r="H90" t="n">
-        <v>22.134</v>
+        <v>21.716</v>
       </c>
     </row>
     <row r="91">
@@ -3465,7 +3468,7 @@
         </is>
       </c>
       <c r="C91">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C5CC6MYW", "119.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C5CC6MYW", "67.19")</f>
         <v/>
       </c>
       <c r="D91">
@@ -3478,7 +3481,7 @@
         </is>
       </c>
       <c r="F91">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/fralda-pampers-confort-sec-tamanho-g-98-unidades/p", "117.06")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/fralda-pampers-confort-sec-tamanho-g-98-unidades/p", "149.49")</f>
         <v/>
       </c>
       <c r="G91">
@@ -3486,7 +3489,7 @@
         <v/>
       </c>
       <c r="H91" t="n">
-        <v>137.9625</v>
+        <v>132.8925</v>
       </c>
     </row>
     <row r="92">
@@ -3507,7 +3510,7 @@
         <v/>
       </c>
       <c r="E92">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/pomada-assadura-bepantol-baby-hipoalergnica-30g/p/MLB18397498", "19.17")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/pomada-assadura-bepantol-baby-hipoalergnica-30g/p/MLB18397498", "20.89")</f>
         <v/>
       </c>
       <c r="F92">
@@ -3519,7 +3522,7 @@
         <v/>
       </c>
       <c r="H92" t="n">
-        <v>18.71</v>
+        <v>19.054</v>
       </c>
     </row>
     <row r="93">
@@ -3532,7 +3535,7 @@
         </is>
       </c>
       <c r="C93">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B08LK15F8N", "39.17")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B08LK15F8N", "29.69")</f>
         <v/>
       </c>
       <c r="D93">
@@ -3544,7 +3547,7 @@
         <v/>
       </c>
       <c r="F93">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/sabonete-liquido-granado-bebe-tradicional--500ml/p", "29.49")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/sabonete-liquido-granado-bebe-tradicional--500ml/p", "29.69")</f>
         <v/>
       </c>
       <c r="G93">
@@ -3552,7 +3555,7 @@
         <v/>
       </c>
       <c r="H93" t="n">
-        <v>34.252</v>
+        <v>32.396</v>
       </c>
     </row>
     <row r="94">
@@ -3565,7 +3568,7 @@
         </is>
       </c>
       <c r="C94">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B08T6JZC6D", "24.69")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B08T6JZC6D", "24.50")</f>
         <v/>
       </c>
       <c r="D94">
@@ -3573,7 +3576,7 @@
         <v/>
       </c>
       <c r="E94">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/repelente-para-beb-sbp-baby-loco-corporal-com-icaridina-100ml/p/MLB36001909", "26.70")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/repelente-para-beb-sbp-baby-loco-corporal-com-icaridina-100ml/p/MLB36001909", "24.00")</f>
         <v/>
       </c>
       <c r="F94">
@@ -3585,7 +3588,7 @@
         <v/>
       </c>
       <c r="H94" t="n">
-        <v>29.534</v>
+        <v>28.956</v>
       </c>
     </row>
     <row r="95">
@@ -3598,7 +3601,7 @@
         </is>
       </c>
       <c r="C95">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B079VV8KVC", "17.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B079VV8KVC", "19.90")</f>
         <v/>
       </c>
       <c r="D95">
@@ -3606,7 +3609,7 @@
         <v/>
       </c>
       <c r="E95">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/loco-deo-hidratante-soft-milk-frasco-400ml-nivea/p/MLB18391180", "21.29")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/loco-deo-hidratante-soft-milk-frasco-400ml-nivea/p/MLB18391180", "20.57")</f>
         <v/>
       </c>
       <c r="F95">
@@ -3614,11 +3617,11 @@
         <v/>
       </c>
       <c r="G95">
-        <f>HYPERLINK("https://www.drogaraia.com.br/nivea-hidratante-corporal-soft-milk-400ml.html", "22.32")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/nivea-hidratante-corporal-soft-milk-400ml.html", "27.90")</f>
         <v/>
       </c>
       <c r="H95" t="n">
-        <v>20.08</v>
+        <v>21.434</v>
       </c>
     </row>
     <row r="96">
@@ -3631,7 +3634,7 @@
         </is>
       </c>
       <c r="C96">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07M7Q36ZS", "17.00")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07M7Q36ZS", "18.89")</f>
         <v/>
       </c>
       <c r="D96" t="inlineStr">
@@ -3640,7 +3643,7 @@
         </is>
       </c>
       <c r="E96">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/absorvente-seios-amamente-diurno-30un-premium-anti-vazamento/p/MLB19541738", "24.37")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/absorvente-seios-amamente-diurno-30un-premium-anti-vazamento/p/MLB19541738", "25.66")</f>
         <v/>
       </c>
       <c r="F96">
@@ -3652,7 +3655,7 @@
         <v/>
       </c>
       <c r="H96" t="n">
-        <v>20.54</v>
+        <v>21.335</v>
       </c>
     </row>
     <row r="97">
@@ -3712,7 +3715,7 @@
         <v/>
       </c>
       <c r="F98">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/absorvente-para-incontinencia-plenitud-femme-noturno-8-unidades/p", "23.79")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/absorvente-para-incontinencia-plenitud-femme-noturno-8-unidades/p", "23.89")</f>
         <v/>
       </c>
       <c r="G98">
@@ -3720,7 +3723,7 @@
         <v/>
       </c>
       <c r="H98" t="n">
-        <v>25.29</v>
+        <v>25.315</v>
       </c>
     </row>
     <row r="99">
@@ -3733,7 +3736,7 @@
         </is>
       </c>
       <c r="C99">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0B7GRKN7G", "208.04")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0B7GRKN7G", "192.39")</f>
         <v/>
       </c>
       <c r="D99">
@@ -3741,19 +3744,19 @@
         <v/>
       </c>
       <c r="E99">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-facial-antirrugas-hyaluron-filler-noite-pele-seca-mista-50g-eucerin/p/MLB10287039", "195.34")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-facial-antirrugas-hyaluron-filler-noite-pele-seca-mista-50g-eucerin/p/MLB10287039", "173.00")</f>
         <v/>
       </c>
       <c r="F99">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-facial-anti--idade-eucerin-hyaluron--filler-noite-50g/p", "218.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-facial-anti--idade-eucerin-hyaluron--filler-noite-50g/p", "229.99")</f>
         <v/>
       </c>
       <c r="G99">
-        <f>HYPERLINK("https://www.drogaraia.com.br/plenitud-absorvente-femme-ultra-8-unidades.html", "12.09")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/plenitud-absorvente-femme-ultra-8-unidades.html", "13.99")</f>
         <v/>
       </c>
       <c r="H99" t="n">
-        <v>173.666</v>
+        <v>168.648</v>
       </c>
     </row>
     <row r="100">
@@ -3775,7 +3778,7 @@
         </is>
       </c>
       <c r="E100">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/absorvente-tena-lady-discreet-maxi-night-6-unidades/p/MLB19483600", "21.15")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/absorvente-tena-lady-discreet-maxi-night-6-unidades/p/MLB19483600", "27.19")</f>
         <v/>
       </c>
       <c r="F100">
@@ -3787,7 +3790,7 @@
         <v/>
       </c>
       <c r="H100" t="n">
-        <v>21.03</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="101">
@@ -3800,7 +3803,7 @@
         </is>
       </c>
       <c r="C101">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0DBS1CHJL", "21.84")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0DBS1CHJL", "22.99")</f>
         <v/>
       </c>
       <c r="D101" t="inlineStr">
@@ -3809,7 +3812,7 @@
         </is>
       </c>
       <c r="E101">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/poise-absorvente-noturno-para-escapes-de-urina-maxi-8-unidades/p/MLB39308051", "22.99")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/poise-absorvente-noturno-para-escapes-de-urina-maxi-8-unidades/p/MLB39308051", "52.55")</f>
         <v/>
       </c>
       <c r="F101">
@@ -3817,11 +3820,11 @@
         <v/>
       </c>
       <c r="G101">
-        <f>HYPERLINK("https://www.drogaraia.com.br/poise-absorvente-noturno-maxx-8-unidades-978196.html", "22.79")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/poise-absorvente-noturno-maxx-8-unidades-978196.html", "27.39")</f>
         <v/>
       </c>
       <c r="H101" t="n">
-        <v>22.3175</v>
+        <v>31.145</v>
       </c>
     </row>
     <row r="102">
@@ -3868,7 +3871,7 @@
         </is>
       </c>
       <c r="C103">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07D3SVDRT", "20.49")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07D3SVDRT", "24.99")</f>
         <v/>
       </c>
       <c r="D103" t="inlineStr">
@@ -3889,7 +3892,7 @@
         <v/>
       </c>
       <c r="H103" t="n">
-        <v>25.1925</v>
+        <v>26.3175</v>
       </c>
     </row>
     <row r="104">
@@ -3902,7 +3905,7 @@
         </is>
       </c>
       <c r="C104">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0D6T7FZKJ", "103.30")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0D6T7FZKJ", "98.42")</f>
         <v/>
       </c>
       <c r="D104">
@@ -3922,7 +3925,7 @@
         <v/>
       </c>
       <c r="H104" t="n">
-        <v>103.962</v>
+        <v>102.986</v>
       </c>
     </row>
     <row r="105">
@@ -3939,7 +3942,7 @@
         <v/>
       </c>
       <c r="D105">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/oleo-demaquilante-facial-biore-make-up-remover/p", "68.90")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/oleo-demaquilante-facial-biore-make-up-remover/p", "69.00")</f>
         <v/>
       </c>
       <c r="E105" t="inlineStr">
@@ -3948,15 +3951,15 @@
         </is>
       </c>
       <c r="F105">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/oleo-biore-make-up-demaquilante-removedor-150ml/p", "66.92")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/oleo-biore-make-up-demaquilante-removedor-150ml/p", "51.19")</f>
         <v/>
       </c>
       <c r="G105">
-        <f>HYPERLINK("https://www.drogaraia.com.br/biore-oleo-de-limpeza-demaquilante-150ml.html", "66.92")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/biore-oleo-de-limpeza-demaquilante-150ml.html", "51.19")</f>
         <v/>
       </c>
       <c r="H105" t="n">
-        <v>65.435</v>
+        <v>57.595</v>
       </c>
     </row>
     <row r="106">
@@ -3973,7 +3976,7 @@
         <v/>
       </c>
       <c r="D106">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/mascara-de-cilios-vult-volume-up/p", "31.90")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/mascara-de-cilios-vult-volume-up/p", "31.03")</f>
         <v/>
       </c>
       <c r="E106" t="inlineStr">
@@ -3982,7 +3985,7 @@
         </is>
       </c>
       <c r="F106">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/mascara-para-cilios-vult-volume-up-10g/p", "31.59")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/mascara-para-cilios-vult-volume-up-10g/p", "26.69")</f>
         <v/>
       </c>
       <c r="G106">
@@ -3990,7 +3993,7 @@
         <v/>
       </c>
       <c r="H106" t="n">
-        <v>34.605</v>
+        <v>33.1625</v>
       </c>
     </row>
     <row r="107">
@@ -4003,7 +4006,7 @@
         </is>
       </c>
       <c r="C107">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B077C2V98D", "28.79")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B077C2V98D", "33.99")</f>
         <v/>
       </c>
       <c r="D107" t="inlineStr">
@@ -4012,7 +4015,7 @@
         </is>
       </c>
       <c r="E107">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/po-compacto-vult-make-up-cor-04/p/MLB24523008", "41.90")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/po-compacto-vult-make-up-cor-04/p/MLB24523008", "42.50")</f>
         <v/>
       </c>
       <c r="F107" t="inlineStr">
@@ -4025,7 +4028,7 @@
         <v/>
       </c>
       <c r="H107" t="n">
-        <v>33.89333333333333</v>
+        <v>35.82666666666667</v>
       </c>
     </row>
     <row r="108">
@@ -4037,28 +4040,29 @@
           <t>Lenço Umedecido Demaquilante Adogial Bioré Cotton com 10 unidades</t>
         </is>
       </c>
-      <c r="C108">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0015X50N8", "29.97")</f>
-        <v/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>indisp.</t>
+        </is>
       </c>
       <c r="D108">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/lenco-demaquilante-facial-biore-make-up-remover/p", "31.90")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/lenco-demaquilante-facial-biore-make-up-remover/p", "36.99")</f>
         <v/>
       </c>
       <c r="E108">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/biore-lenco-demaquilante-cleansing-cotton-rich-moisture-10un/p/MLB21454662", "35.06")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/biore-lenco-demaquilante-cleansing-cotton-rich-moisture-10un/p/MLB21454662", "35.14")</f>
         <v/>
       </c>
       <c r="F108">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/lenco-demaquilante-biore-make-up-remover-10-unidades/p", "33.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/lenco-demaquilante-biore-make-up-remover-10-unidades/p", "33.59")</f>
         <v/>
       </c>
       <c r="G108">
-        <f>HYPERLINK("https://www.drogaraia.com.br/biore-lenco-umedecido-demaquilante-10-folhas.html", "36.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/biore-lenco-umedecido-demaquilante-10-folhas.html", "33.59")</f>
         <v/>
       </c>
       <c r="H108" t="n">
-        <v>33.58200000000001</v>
+        <v>34.8275</v>
       </c>
     </row>
     <row r="109">
@@ -4071,7 +4075,7 @@
         </is>
       </c>
       <c r="C109">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B004Y9GV60", "67.98")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B004Y9GV60", "94.90")</f>
         <v/>
       </c>
       <c r="D109">
@@ -4079,7 +4083,7 @@
         <v/>
       </c>
       <c r="E109">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/corretivo-liquido-eraser-light-maybelline-ny/p/MLB28616933", "80.69")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/corretivo-liquido-eraser-light-maybelline-ny/p/MLB28616933", "68.27")</f>
         <v/>
       </c>
       <c r="F109">
@@ -4091,7 +4095,7 @@
         <v/>
       </c>
       <c r="H109" t="n">
-        <v>73.458</v>
+        <v>76.358</v>
       </c>
     </row>
     <row r="110">
@@ -4104,7 +4108,7 @@
         </is>
       </c>
       <c r="C110">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B077BY4FMF", "35.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B077BY4FMF", "40.79")</f>
         <v/>
       </c>
       <c r="D110">
@@ -4124,7 +4128,7 @@
         <v/>
       </c>
       <c r="H110" t="n">
-        <v>37.432</v>
+        <v>38.41</v>
       </c>
     </row>
     <row r="111">
@@ -4154,11 +4158,11 @@
         </is>
       </c>
       <c r="G111">
-        <f>HYPERLINK("https://www.drogaraia.com.br/eudora-glam-batom-micro-plastia-nude-rosado-3-3g.html", "51.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/eudora-glam-batom-micro-plastia-nude-rosado-3-3g.html", "48.79")</f>
         <v/>
       </c>
       <c r="H111" t="n">
-        <v>55.24</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="112">
@@ -4187,11 +4191,11 @@
         <v/>
       </c>
       <c r="G112">
-        <f>HYPERLINK("https://www.drogaraia.com.br/nivea-visage-locao-demaquilante-olhos-125-ml.html", "33.90")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/nivea-visage-locao-demaquilante-olhos-125-ml.html", "27.12")</f>
         <v/>
       </c>
       <c r="H112" t="n">
-        <v>32.79799999999999</v>
+        <v>31.442</v>
       </c>
     </row>
     <row r="113">
@@ -4204,7 +4208,7 @@
         </is>
       </c>
       <c r="C113">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07Q9HT1P2", "298.85")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07Q9HT1P2", "137.77")</f>
         <v/>
       </c>
       <c r="D113">
@@ -4212,7 +4216,7 @@
         <v/>
       </c>
       <c r="E113">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/shiseido-bb-for-sports-fps-50-light-base-liquida-30ml/p/MLB20313151", "276.00")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/shiseido-bb-for-sports-fps-50-light-base-liquida-30ml/p/MLB20313151", "249.99")</f>
         <v/>
       </c>
       <c r="F113">
@@ -4224,7 +4228,7 @@
         <v/>
       </c>
       <c r="H113" t="n">
-        <v>294.762</v>
+        <v>257.344</v>
       </c>
     </row>
     <row r="114">
@@ -4255,11 +4259,11 @@
         <v/>
       </c>
       <c r="G114">
-        <f>HYPERLINK("https://www.drogaraia.com.br/vult-lapiseira-labial-rose-0-35g.html", "19.48")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/vult-lapiseira-labial-rose-0-35g.html", "22.99")</f>
         <v/>
       </c>
       <c r="H114" t="n">
-        <v>20.99</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="115">
@@ -4272,7 +4276,7 @@
         </is>
       </c>
       <c r="C115">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C2ZBXYKK", "33.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C2ZBXYKK", "33.79")</f>
         <v/>
       </c>
       <c r="D115">
@@ -4284,15 +4288,15 @@
         <v/>
       </c>
       <c r="F115">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/blush-em-po-compacto-vult-meu-blush-rosa-matte-3g/p", "25.59")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/blush-em-po-compacto-vult-meu-blush-rosa-matte-3g/p", "26.79")</f>
         <v/>
       </c>
       <c r="G115">
-        <f>HYPERLINK("https://www.drogaraia.com.br/vult-blush-compacto-malva-matte-3g.html", "31.19")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/vult-blush-compacto-malva-matte-3g.html", "26.79")</f>
         <v/>
       </c>
       <c r="H115" t="n">
-        <v>32.02800000000001</v>
+        <v>31.348</v>
       </c>
     </row>
     <row r="116">
@@ -4305,7 +4309,7 @@
         </is>
       </c>
       <c r="C116">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B074VFYJTC", "88.11")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B074VFYJTC", "68.38")</f>
         <v/>
       </c>
       <c r="D116">
@@ -4325,7 +4329,7 @@
         <v/>
       </c>
       <c r="H116" t="n">
-        <v>91.64000000000001</v>
+        <v>87.694</v>
       </c>
     </row>
     <row r="117">
@@ -4346,7 +4350,7 @@
         <v/>
       </c>
       <c r="E117">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/oceane-4-you-rose-sparkle-paleta-de-sombras-46g/p/MLB37751488", "49.90")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/oceane-4-you-rose-sparkle-paleta-de-sombras-46g/p/MLB37751488", "31.59")</f>
         <v/>
       </c>
       <c r="F117">
@@ -4358,7 +4362,7 @@
         <v/>
       </c>
       <c r="H117" t="n">
-        <v>49.548</v>
+        <v>45.886</v>
       </c>
     </row>
     <row r="118">
@@ -4371,7 +4375,7 @@
         </is>
       </c>
       <c r="C118">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CTNR9ZD9", "50.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CTNR9ZD9", "45.90")</f>
         <v/>
       </c>
       <c r="D118">
@@ -4379,7 +4383,7 @@
         <v/>
       </c>
       <c r="E118">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/contorno-em-basto-marrom-medio-contour-stick-medium-oceane/p/MLB35291556", "54.52")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/contorno-em-basto-marrom-medio-contour-stick-medium-oceane/p/MLB35291556", "54.00")</f>
         <v/>
       </c>
       <c r="F118">
@@ -4391,7 +4395,7 @@
         <v/>
       </c>
       <c r="H118" t="n">
-        <v>55.824</v>
+        <v>54.72000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4404,7 +4408,7 @@
         </is>
       </c>
       <c r="C119">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CNBKPTG1", "43.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CNBKPTG1", "41.79")</f>
         <v/>
       </c>
       <c r="D119">
@@ -4412,7 +4416,7 @@
         <v/>
       </c>
       <c r="E119">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-calmante-multirreparador-cm-01/p/MLB28364235", "48.90")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-calmante-multirreparador-cm-01/p/MLB28364235", "42.99")</f>
         <v/>
       </c>
       <c r="F119">
@@ -4424,7 +4428,7 @@
         <v/>
       </c>
       <c r="H119" t="n">
-        <v>44.978</v>
+        <v>43.356</v>
       </c>
     </row>
     <row r="120">
@@ -4437,7 +4441,7 @@
         </is>
       </c>
       <c r="C120">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0BLT2VT1B", "64.39")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0BLT2VT1B", "61.59")</f>
         <v/>
       </c>
       <c r="D120">
@@ -4445,19 +4449,19 @@
         <v/>
       </c>
       <c r="E120">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/sallve-hidratante-antiatrito-75g-niacinamida-y-alantoina/p/MLB30961821", "51.98")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/sallve-hidratante-antiatrito-75g-niacinamida-y-alantoina/p/MLB30961821", "43.16")</f>
         <v/>
       </c>
       <c r="F120">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/hidratante-sallve-antiatrito-75g/p", "64.39")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/hidratante-sallve-antiatrito-75g/p", "61.59")</f>
         <v/>
       </c>
       <c r="G120">
-        <f>HYPERLINK("https://www.drogaraia.com.br/sallve-hidratante-antiatrito-75g.html", "64.39")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/sallve-hidratante-antiatrito-75g.html", "61.99")</f>
         <v/>
       </c>
       <c r="H120" t="n">
-        <v>62.61</v>
+        <v>59.246</v>
       </c>
     </row>
     <row r="121">
@@ -4480,7 +4484,7 @@
         </is>
       </c>
       <c r="E121">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/clindoxyl-control-10-45g/p/MLB20612796", "78.89")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/clindoxyl-control-10-45g/p/MLB20612796", "68.90")</f>
         <v/>
       </c>
       <c r="F121">
@@ -4492,7 +4496,7 @@
         <v/>
       </c>
       <c r="H121" t="n">
-        <v>63.62333333333333</v>
+        <v>60.29333333333334</v>
       </c>
     </row>
     <row r="122">
@@ -4505,7 +4509,7 @@
         </is>
       </c>
       <c r="C122">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0D2V2K78X", "70.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0D2V2K78X", "82.90")</f>
         <v/>
       </c>
       <c r="D122">
@@ -4513,11 +4517,11 @@
         <v/>
       </c>
       <c r="E122">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/fisiogel-creme-hidratante-corporal-450g/p/MLB23391103", "65.21")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/fisiogel-creme-hidratante-corporal-450g/p/MLB23391103", "68.19")</f>
         <v/>
       </c>
       <c r="F122">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-hidratante-fisiogel-450g/p", "66.19")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-hidratante-fisiogel-450g/p", "69.59")</f>
         <v/>
       </c>
       <c r="G122">
@@ -4525,7 +4529,7 @@
         <v/>
       </c>
       <c r="H122" t="n">
-        <v>76.35799999999999</v>
+        <v>80.03400000000002</v>
       </c>
     </row>
     <row r="123">
@@ -4542,11 +4546,11 @@
         <v/>
       </c>
       <c r="D123">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/hidratante-facial-nivea-acne-control/p", "49.90")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/hidratante-facial-nivea-acne-control/p", "44.91")</f>
         <v/>
       </c>
       <c r="E123">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/nivea-hidratante-facial-acne-control-50g/p/MLB22835162", "47.53")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/nivea-hidratante-facial-acne-control-50g/p/MLB22835162", "46.34")</f>
         <v/>
       </c>
       <c r="F123">
@@ -4558,7 +4562,7 @@
         <v/>
       </c>
       <c r="H123" t="n">
-        <v>47.02200000000001</v>
+        <v>45.786</v>
       </c>
     </row>
     <row r="124">
@@ -4571,7 +4575,7 @@
         </is>
       </c>
       <c r="C124">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0B3SHR3XY", "122.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0B3SHR3XY", "127.29")</f>
         <v/>
       </c>
       <c r="D124">
@@ -4579,19 +4583,19 @@
         <v/>
       </c>
       <c r="E124">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/eucerin-anti-pigment-creme-para-as-mos-75ml/p/MLB32447732", "232.88")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/eucerin-anti-pigment-creme-para-as-mos-75ml/p/MLB32447732", "238.88")</f>
         <v/>
       </c>
       <c r="F124">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-clareador-para-maos-eucerin-anti-pigment-75ml/p", "133.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-clareador-para-maos-eucerin-anti-pigment-75ml/p", "122.99")</f>
         <v/>
       </c>
       <c r="G124">
-        <f>HYPERLINK("https://www.drogaraia.com.br/eucerin-anti-pigment-maos-75ml.html", "133.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/eucerin-anti-pigment-maos-75ml.html", "122.99")</f>
         <v/>
       </c>
       <c r="H124" t="n">
-        <v>153.35</v>
+        <v>151.01</v>
       </c>
     </row>
     <row r="125">
@@ -4604,7 +4608,7 @@
         </is>
       </c>
       <c r="C125">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B000SQIHJM", "41.57")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B000SQIHJM", "37.41")</f>
         <v/>
       </c>
       <c r="D125">
@@ -4624,7 +4628,7 @@
         <v/>
       </c>
       <c r="H125" t="n">
-        <v>41.786</v>
+        <v>40.95399999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4637,7 +4641,7 @@
         </is>
       </c>
       <c r="C126">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0BBDYV3ZJ", "18.19")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0BBDYV3ZJ", "16.37")</f>
         <v/>
       </c>
       <c r="D126">
@@ -4645,7 +4649,7 @@
         <v/>
       </c>
       <c r="E126">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-hidratante-facial-nutritivo-vult-100g-momento-de-aplicaco-dia-tipo-de-pele-todo-tipo-de-pele/p/MLB34741971", "24.29")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-hidratante-facial-nutritivo-vult-100g-momento-de-aplicaco-dia-tipo-de-pele-todo-tipo-de-pele/p/MLB34741971", "31.56")</f>
         <v/>
       </c>
       <c r="F126">
@@ -4657,7 +4661,7 @@
         <v/>
       </c>
       <c r="H126" t="n">
-        <v>21.952</v>
+        <v>23.042</v>
       </c>
     </row>
     <row r="127">
@@ -4670,7 +4674,7 @@
         </is>
       </c>
       <c r="C127">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07MBC1XYG", "12.34")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07MBC1XYG", "19.99")</f>
         <v/>
       </c>
       <c r="D127">
@@ -4687,11 +4691,11 @@
         <v/>
       </c>
       <c r="G127">
-        <f>HYPERLINK("https://www.drogaraia.com.br/bepantriz-derma-crem-20g.html", "13.09")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/bepantriz-derma-crem-20g.html", "14.99")</f>
         <v/>
       </c>
       <c r="H127" t="n">
-        <v>17.17</v>
+        <v>19.5575</v>
       </c>
     </row>
     <row r="128">
@@ -4704,7 +4708,7 @@
         </is>
       </c>
       <c r="C128">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07BTPCPP9", "55.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07BTPCPP9", "67.41")</f>
         <v/>
       </c>
       <c r="D128">
@@ -4712,7 +4716,7 @@
         <v/>
       </c>
       <c r="E128">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/oleo-para-corpo-bio-oil-oleo-corporal-bio-oil-antiestrias-e-cicatrizante-200ml-en-tubo-200ml/p/MLB19149299", "86.05")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/oleo-para-corpo-bio-oil-oleo-corporal-bio-oil-antiestrias-e-cicatrizante-200ml-en-tubo-200ml/p/MLB19149299", "105.57")</f>
         <v/>
       </c>
       <c r="F128">
@@ -4720,11 +4724,11 @@
         <v/>
       </c>
       <c r="G128">
-        <f>HYPERLINK("https://www.drogaraia.com.br/bio-oil-oleo-corporal-200ml.html", "78.98")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/bio-oil-oleo-corporal-200ml.html", "92.99")</f>
         <v/>
       </c>
       <c r="H128" t="n">
-        <v>76.76200000000001</v>
+        <v>85.77000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -4737,7 +4741,7 @@
         </is>
       </c>
       <c r="C129">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B079VWT54Z", "51.39")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B079VWT54Z", "46.25")</f>
         <v/>
       </c>
       <c r="D129">
@@ -4745,11 +4749,11 @@
         <v/>
       </c>
       <c r="E129">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-hidratante-reparador-para-as-mos-ureadin-manos-515g-isdin/p/MLB18390837", "60.97")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/creme-hidratante-reparador-para-as-mos-ureadin-manos-515g-isdin/p/MLB18390837", "51.39")</f>
         <v/>
       </c>
       <c r="F129">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-hidratante-para--maos-isdin-ureadin-manos-plus-51--5g/p", "51.39")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-hidratante-para--maos-isdin-ureadin-manos-plus-51--5g/p", "74.90")</f>
         <v/>
       </c>
       <c r="G129">
@@ -4757,7 +4761,7 @@
         <v/>
       </c>
       <c r="H129" t="n">
-        <v>56.928</v>
+        <v>58.686</v>
       </c>
     </row>
     <row r="130">
@@ -4770,7 +4774,7 @@
         </is>
       </c>
       <c r="C130">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07MNL24T5", "39.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07MNL24T5", "51.90")</f>
         <v/>
       </c>
       <c r="D130">
@@ -4783,15 +4787,15 @@
         </is>
       </c>
       <c r="F130">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-maos-e-pes-hidratante-fisiogel-50g/p", "23.59")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/creme-maos-e-pes-hidratante-fisiogel-50g/p", "24.79")</f>
         <v/>
       </c>
       <c r="G130">
-        <f>HYPERLINK("https://www.drogaraia.com.br/fisiogel-creme-para-as-maos-calm-ai-50g.html", "51.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/fisiogel-creme-para-as-maos-calm-ai-50g.html", "49.39")</f>
         <v/>
       </c>
       <c r="H130" t="n">
-        <v>58.84500000000001</v>
+        <v>61.495</v>
       </c>
     </row>
     <row r="131">
@@ -4804,7 +4808,7 @@
         </is>
       </c>
       <c r="C131">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C3MNJBZX", "23.39")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C3MNJBZX", "19.91")</f>
         <v/>
       </c>
       <c r="D131">
@@ -4812,7 +4816,7 @@
         <v/>
       </c>
       <c r="E131">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/nivea-hidratante-labial-ultra-hialurnico-52g/p/MLB29527654", "30.99")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/nivea-hidratante-labial-ultra-hialurnico-52g/p/MLB29527654", "31.02")</f>
         <v/>
       </c>
       <c r="F131">
@@ -4824,7 +4828,7 @@
         <v/>
       </c>
       <c r="H131" t="n">
-        <v>30.816</v>
+        <v>30.126</v>
       </c>
     </row>
     <row r="132">
@@ -4837,11 +4841,11 @@
         </is>
       </c>
       <c r="C132">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0D96H26XL", "26.69")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0D96H26XL", "26.73")</f>
         <v/>
       </c>
       <c r="D132">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/carmed-doce-de-leite---hidratante-labial-10g-105686/p", "30.99")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/carmed-doce-de-leite---hidratante-labial-10g-105686/p", "29.44")</f>
         <v/>
       </c>
       <c r="E132" t="inlineStr">
@@ -4858,7 +4862,7 @@
         <v/>
       </c>
       <c r="H132" t="n">
-        <v>26.3775</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133">
@@ -4879,7 +4883,7 @@
         <v/>
       </c>
       <c r="E133">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/serum-dermo-clareador-theraskin-klassis-specialle-50g-tipo-de-pele-pele-sensivel/p/MLB24379463", "143.04")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/serum-dermo-clareador-theraskin-klassis-specialle-50g-tipo-de-pele-pele-sensivel/p/MLB24379463", "135.90")</f>
         <v/>
       </c>
       <c r="F133">
@@ -4891,7 +4895,7 @@
         <v/>
       </c>
       <c r="H133" t="n">
-        <v>153.99</v>
+        <v>152.562</v>
       </c>
     </row>
     <row r="134">
@@ -4904,7 +4908,7 @@
         </is>
       </c>
       <c r="C134">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07SJSZHD7", "229.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07SJSZHD7", "225.90")</f>
         <v/>
       </c>
       <c r="D134">
@@ -4920,11 +4924,11 @@
         <v/>
       </c>
       <c r="G134">
-        <f>HYPERLINK("https://www.drogaraia.com.br/eucerin-anti-pigment-dual-serum-facial.html", "237.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/eucerin-anti-pigment-dual-serum-facial.html", "227.99")</f>
         <v/>
       </c>
       <c r="H134" t="n">
-        <v>227.246</v>
+        <v>224.446</v>
       </c>
     </row>
     <row r="135">
@@ -4937,7 +4941,7 @@
         </is>
       </c>
       <c r="C135">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07JR55K68", "49.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07JR55K68", "54.90")</f>
         <v/>
       </c>
       <c r="D135">
@@ -4945,7 +4949,7 @@
         <v/>
       </c>
       <c r="E135">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/geleia-de-vaselina-100-pura-original-vasenol-pote-100g-tipo-de-embalagem-pote/p/MLB19510482", "35.88")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/geleia-de-vaselina-100-pura-original-vasenol-pote-100g-tipo-de-embalagem-pote/p/MLB19510482", "39.53")</f>
         <v/>
       </c>
       <c r="F135">
@@ -4953,11 +4957,11 @@
         <v/>
       </c>
       <c r="G135">
-        <f>HYPERLINK("https://www.drogaraia.com.br/geleia-de-vaselina-100-pura-original-100g.html", "24.09")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/geleia-de-vaselina-100-pura-original-100g.html", "25.39")</f>
         <v/>
       </c>
       <c r="H135" t="n">
-        <v>32.44600000000001</v>
+        <v>34.41800000000001</v>
       </c>
     </row>
     <row r="136">
@@ -4970,11 +4974,11 @@
         </is>
       </c>
       <c r="C136">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B09B2LLKNM", "32.79")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B09B2LLKNM", "34.19")</f>
         <v/>
       </c>
       <c r="D136">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/classic-giovanna-baby-body-spray/p", "28.00")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/classic-giovanna-baby-body-spray/p", "37.52")</f>
         <v/>
       </c>
       <c r="E136">
@@ -4982,15 +4986,15 @@
         <v/>
       </c>
       <c r="F136">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/body-splash-giovanna-baby-classic-260ml/p", "32.79")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/body-splash-giovanna-baby-classic-260ml/p", "34.19")</f>
         <v/>
       </c>
       <c r="G136">
-        <f>HYPERLINK("https://www.drogaraia.com.br/giovanna-baby-body-splash-desodorante-corporal-classic-260ml.html", "34.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/giovanna-baby-body-splash-desodorante-corporal-classic-260ml.html", "34.90")</f>
         <v/>
       </c>
       <c r="H136" t="n">
-        <v>32.586</v>
+        <v>35.032</v>
       </c>
     </row>
     <row r="137">
@@ -5011,7 +5015,7 @@
         <v/>
       </c>
       <c r="E137">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/deo-colnia-giovanna-baby-blue-50ml/p/MLB22835709", "58.63")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/deo-colnia-giovanna-baby-blue-50ml/p/MLB22835709", "67.00")</f>
         <v/>
       </c>
       <c r="F137">
@@ -5023,7 +5027,7 @@
         <v/>
       </c>
       <c r="H137" t="n">
-        <v>54.564</v>
+        <v>56.238</v>
       </c>
     </row>
     <row r="138">
@@ -5040,7 +5044,7 @@
         <v/>
       </c>
       <c r="D138">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/classic-giovanna-baby-perfume-feminino-deo-colonia/p", "74.00")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/classic-giovanna-baby-perfume-feminino-deo-colonia/p", "78.40")</f>
         <v/>
       </c>
       <c r="E138" t="inlineStr">
@@ -5057,7 +5061,7 @@
         <v/>
       </c>
       <c r="H138" t="n">
-        <v>67.23</v>
+        <v>68.33</v>
       </c>
     </row>
     <row r="139">
@@ -5074,7 +5078,7 @@
         <v/>
       </c>
       <c r="D139">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/cherry-giovanna-baby-body-spray/p", "30.44")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/cherry-giovanna-baby-body-spray/p", "37.52")</f>
         <v/>
       </c>
       <c r="E139">
@@ -5082,15 +5086,15 @@
         <v/>
       </c>
       <c r="F139">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/body-splash-peach-giovanna-baby-sweet-collection-260ml-spray/p", "36.79")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/body-splash-peach-giovanna-baby-sweet-collection-260ml-spray/p", "34.90")</f>
         <v/>
       </c>
       <c r="G139">
-        <f>HYPERLINK("https://www.drogaraia.com.br/giovanna-baby-body-splash-desodorante-corporal-peach-260ml.html", "36.79")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/giovanna-baby-body-splash-desodorante-corporal-peach-260ml.html", "34.90")</f>
         <v/>
       </c>
       <c r="H139" t="n">
-        <v>34.564</v>
+        <v>35.224</v>
       </c>
     </row>
     <row r="140">
@@ -5102,17 +5106,16 @@
           <t>Body Splash Desodorante Corporal Giovanna Baby Beauty 260ml</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>indisp.</t>
-        </is>
+      <c r="C140">
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B09VCS7BFF", "34.90")</f>
+        <v/>
       </c>
       <c r="D140">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/body-splash-giovanna-baby-blueberry/p", "28.00")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/body-splash-giovanna-baby-blueberry/p", "37.52")</f>
         <v/>
       </c>
       <c r="E140">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/body-splash-giovanna-baby-beauty-260ml-volume-da-unidade-260-ml/p/MLB22309033", "28.53")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/body-splash-giovanna-baby-beauty-260ml-volume-da-unidade-260-ml/p/MLB22309033", "36.90")</f>
         <v/>
       </c>
       <c r="F140" t="inlineStr">
@@ -5121,11 +5124,11 @@
         </is>
       </c>
       <c r="G140">
-        <f>HYPERLINK("https://www.drogaraia.com.br/giovanna-baby-body-splash-desodorante-corporal-beauty-260ml.html", "36.79")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/giovanna-baby-body-splash-desodorante-corporal-beauty-260ml.html", "34.90")</f>
         <v/>
       </c>
       <c r="H140" t="n">
-        <v>31.10666666666667</v>
+        <v>36.055</v>
       </c>
     </row>
     <row r="141">
@@ -5138,7 +5141,7 @@
         </is>
       </c>
       <c r="C141">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07F3RH7DD", "31.99")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07F3RH7DD", "26.99")</f>
         <v/>
       </c>
       <c r="D141" t="inlineStr">
@@ -5152,15 +5155,15 @@
         </is>
       </c>
       <c r="F141">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/colonia-seiva-alfazema-118ml/p", "18.98")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/colonia-seiva-alfazema-118ml/p", "13.99")</f>
         <v/>
       </c>
       <c r="G141">
-        <f>HYPERLINK("https://www.drogaraia.com.br/alfazema-colonia-lavanda-118-ml.html", "19.59")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/alfazema-colonia-lavanda-118-ml.html", "18.79")</f>
         <v/>
       </c>
       <c r="H141" t="n">
-        <v>23.52</v>
+        <v>19.92333333333333</v>
       </c>
     </row>
     <row r="142">
@@ -5173,11 +5176,11 @@
         </is>
       </c>
       <c r="C142">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CQZ4W2HV", "91.07")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CQZ4W2HV", "81.69")</f>
         <v/>
       </c>
       <c r="D142">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/protetor-solar-facial-biore-perfect-milk-50-fps/p", "74.90")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/protetor-solar-facial-biore-perfect-milk-50-fps/p", "74.99")</f>
         <v/>
       </c>
       <c r="E142">
@@ -5189,11 +5192,11 @@
         <v/>
       </c>
       <c r="G142">
-        <f>HYPERLINK("https://www.drogaraia.com.br/biore-uv-perfect-milk-40ml.html", "70.48")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/biore-uv-perfect-milk-40ml.html", "64.90")</f>
         <v/>
       </c>
       <c r="H142" t="n">
-        <v>72.114</v>
+        <v>69.14000000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5214,11 +5217,11 @@
         <v/>
       </c>
       <c r="E143">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-facial-la-roche-posay-anthelios-ultra-cover-fps60-cor-30-30g/p/MLB19767143", "69.99")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-facial-la-roche-posay-anthelios-ultra-cover-fps60-cor-30-30g/p/MLB19767143", "75.99")</f>
         <v/>
       </c>
       <c r="F143">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-la-roche-posay-anthelios-60-fps-30g/p", "69.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-la-roche-posay-anthelios-60-fps-30g/p", "75.99")</f>
         <v/>
       </c>
       <c r="G143">
@@ -5226,7 +5229,7 @@
         <v/>
       </c>
       <c r="H143" t="n">
-        <v>77.994</v>
+        <v>80.39400000000001</v>
       </c>
     </row>
     <row r="144">
@@ -5239,7 +5242,7 @@
         </is>
       </c>
       <c r="C144">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B084GXLKRM", "64.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B084GXLKRM", "139.00")</f>
         <v/>
       </c>
       <c r="D144">
@@ -5247,11 +5250,11 @@
         <v/>
       </c>
       <c r="E144">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-avene-mat-perfect-clareador-media-fps70-40g/p/MLB19766902", "86.65")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-avene-mat-perfect-clareador-media-fps70-40g/p/MLB19766902", "87.17")</f>
         <v/>
       </c>
       <c r="F144">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-facial-avene-fluido-clareador-70-fps-40g/p", "80.99")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-facial-avene-fluido-clareador-70-fps-40g/p", "84.99")</f>
         <v/>
       </c>
       <c r="G144">
@@ -5259,7 +5262,7 @@
         <v/>
       </c>
       <c r="H144" t="n">
-        <v>83.748</v>
+        <v>99.47200000000001</v>
       </c>
     </row>
     <row r="145">
@@ -5272,7 +5275,7 @@
         </is>
       </c>
       <c r="C145">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B08STYKTB1", "66.29")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B08STYKTB1", "68.59")</f>
         <v/>
       </c>
       <c r="D145">
@@ -5289,11 +5292,11 @@
         <v/>
       </c>
       <c r="G145">
-        <f>HYPERLINK("https://www.drogaraia.com.br/dermage-photoage-water-fps50-40g.html", "68.59")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/dermage-photoage-water-fps50-40g.html", "68.79")</f>
         <v/>
       </c>
       <c r="H145" t="n">
-        <v>80.2025</v>
+        <v>80.8275</v>
       </c>
     </row>
     <row r="146">
@@ -5306,7 +5309,7 @@
         </is>
       </c>
       <c r="C146">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CGK9632T", "78.74")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0CGK9632T", "86.89")</f>
         <v/>
       </c>
       <c r="D146">
@@ -5314,19 +5317,19 @@
         <v/>
       </c>
       <c r="E146">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-facial-com-filtros-fisicos-fusion-fluid-mineral-fps-50-50ml-isdin/p/MLB26579614", "75.92")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-facial-com-filtros-fisicos-fusion-fluid-mineral-fps-50-50ml-isdin/p/MLB26579614", "78.99")</f>
         <v/>
       </c>
       <c r="F146">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-facial-isdin-fotoprotector-fusion-fluid-mineral-fps50/p", "85.49")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-facial-isdin-fotoprotector-fusion-fluid-mineral-fps50/p", "89.99")</f>
         <v/>
       </c>
       <c r="G146">
-        <f>HYPERLINK("https://www.drogaraia.com.br/isdin-protetor-solar-fusion-fluid-mineral-fps50-50ml.html", "90.49")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/isdin-protetor-solar-fusion-fluid-mineral-fps50-50ml.html", "89.99")</f>
         <v/>
       </c>
       <c r="H146" t="n">
-        <v>88.408</v>
+        <v>91.45200000000001</v>
       </c>
     </row>
     <row r="147">
@@ -5338,9 +5341,10 @@
           <t>Protetor Solar Corporal FPS 50 Helioderm Suncare 200g</t>
         </is>
       </c>
-      <c r="C147">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07MHJVWMY", "82.49")</f>
-        <v/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>indisp.</t>
+        </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -5348,7 +5352,7 @@
         </is>
       </c>
       <c r="E147">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-helioderm-proteccion-solar-fps-70-70fps-en-creme-200ml/p/MLB30176403", "44.19")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-helioderm-proteccion-solar-fps-70-70fps-en-creme-200ml/p/MLB30176403", "43.49")</f>
         <v/>
       </c>
       <c r="F147">
@@ -5360,7 +5364,7 @@
         <v/>
       </c>
       <c r="H147" t="n">
-        <v>47.86499999999999</v>
+        <v>36.09</v>
       </c>
     </row>
     <row r="148">
@@ -5373,7 +5377,7 @@
         </is>
       </c>
       <c r="C148">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07G3BVVZW", "55.95")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07G3BVVZW", "60.19")</f>
         <v/>
       </c>
       <c r="D148">
@@ -5381,11 +5385,11 @@
         <v/>
       </c>
       <c r="E148">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-sundown-praia-e-piscina-fps-70-200ml/p/MLB16139135", "60.79")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-sundown-praia-e-piscina-fps-70-200ml/p/MLB16139135", "60.19")</f>
         <v/>
       </c>
       <c r="F148">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-sundown-fps-70-200ml/p", "60.79")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-sundown-fps-70-200ml/p", "60.19")</f>
         <v/>
       </c>
       <c r="G148">
@@ -5393,7 +5397,7 @@
         <v/>
       </c>
       <c r="H148" t="n">
-        <v>106.512</v>
+        <v>107.12</v>
       </c>
     </row>
     <row r="149">
@@ -5406,7 +5410,7 @@
         </is>
       </c>
       <c r="C149">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B077BY8HQV", "47.71")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B077BY8HQV", "42.18")</f>
         <v/>
       </c>
       <c r="D149">
@@ -5426,7 +5430,7 @@
         <v/>
       </c>
       <c r="H149" t="n">
-        <v>61.39</v>
+        <v>60.28400000000001</v>
       </c>
     </row>
     <row r="150">
@@ -5439,7 +5443,7 @@
         </is>
       </c>
       <c r="C150">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0BJ35H6HK", "88.49")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0BJ35H6HK", "71.98")</f>
         <v/>
       </c>
       <c r="D150">
@@ -5447,11 +5451,11 @@
         <v/>
       </c>
       <c r="E150">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-facial-antioleosidade-anthelios-airlicium-fps-50-sem-cor-40ml-la-roche-posay/p/MLB19951193", "84.16")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-facial-antioleosidade-anthelios-airlicium-fps-50-sem-cor-40ml-la-roche-posay/p/MLB19951193", "84.15")</f>
         <v/>
       </c>
       <c r="F150">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-la-roche-posay-anthelios-airlicium-fluido-com-cor-2-0-fps50-40ml/p", "82.49")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-la-roche-posay-anthelios-airlicium-fluido-com-cor-2-0-fps50-40ml/p", "119.90")</f>
         <v/>
       </c>
       <c r="G150">
@@ -5459,7 +5463,7 @@
         <v/>
       </c>
       <c r="H150" t="n">
-        <v>96.208</v>
+        <v>100.386</v>
       </c>
     </row>
     <row r="151">
@@ -5472,7 +5476,7 @@
         </is>
       </c>
       <c r="C151">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B08NVML21R", "52.24")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B08NVML21R", "48.21")</f>
         <v/>
       </c>
       <c r="D151">
@@ -5480,7 +5484,7 @@
         <v/>
       </c>
       <c r="E151">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-facial-sun-fresh-fps-70-40g-neutrogena/p/MLB17476594", "48.21")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-facial-sun-fresh-fps-70-40g-neutrogena/p/MLB17476594", "47.45")</f>
         <v/>
       </c>
       <c r="F151">
@@ -5492,7 +5496,7 @@
         <v/>
       </c>
       <c r="H151" t="n">
-        <v>55.46599999999999</v>
+        <v>54.508</v>
       </c>
     </row>
     <row r="152">
@@ -5513,7 +5517,7 @@
         <v/>
       </c>
       <c r="E152">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-spray-protect-toque-seco-fps-30-nivea-sun-frasco-200ml/p/MLB18407874", "33.90")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-spray-protect-toque-seco-fps-30-nivea-sun-frasco-200ml/p/MLB18407874", "24.90")</f>
         <v/>
       </c>
       <c r="F152">
@@ -5525,7 +5529,7 @@
         <v/>
       </c>
       <c r="H152" t="n">
-        <v>56.824</v>
+        <v>55.024</v>
       </c>
     </row>
     <row r="153">
@@ -5538,27 +5542,27 @@
         </is>
       </c>
       <c r="C153">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C2VYDJ3Q", "76.98")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C2VYDJ3Q", "69.28")</f>
         <v/>
       </c>
       <c r="D153">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/protetor-solar-granado-bebe-fps70/p", "88.90")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/protetor-solar-granado-bebe-fps70/p", "80.10")</f>
         <v/>
       </c>
       <c r="E153">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-beb-granado-sem-perfume-fps70/p/MLB19837164", "64.99")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/protetor-solar-beb-granado-sem-perfume-fps70/p/MLB19837164", "59.34")</f>
         <v/>
       </c>
       <c r="F153">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-granado-bebe-fps70-120ml/p", "76.98")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/protetor-solar-granado-bebe-fps70-120ml/p", "77.09")</f>
         <v/>
       </c>
       <c r="G153">
-        <f>HYPERLINK("https://www.drogaraia.com.br/granado-bebe-protetor-solar-infantil-fps70-120ml.html", "76.98")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/granado-bebe-protetor-solar-infantil-fps70-120ml.html", "80.98")</f>
         <v/>
       </c>
       <c r="H153" t="n">
-        <v>76.96600000000001</v>
+        <v>73.358</v>
       </c>
     </row>
     <row r="154">
@@ -5588,11 +5592,11 @@
         <v/>
       </c>
       <c r="G154">
-        <f>HYPERLINK("https://www.drogaraia.com.br/xo-inseto-15-spray-frasco-200ml.html", "14.89")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/xo-inseto-15-spray-frasco-200ml.html", "16.19")</f>
         <v/>
       </c>
       <c r="H154" t="n">
-        <v>16.4575</v>
+        <v>16.7825</v>
       </c>
     </row>
     <row r="155">
@@ -5605,7 +5609,7 @@
         </is>
       </c>
       <c r="C155">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07D2FT1G6", "12.29")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07D2FT1G6", "18.79")</f>
         <v/>
       </c>
       <c r="D155" t="inlineStr">
@@ -5614,19 +5618,19 @@
         </is>
       </c>
       <c r="E155">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/repelente-infantil-off-kids-proteco-contra-mosquito-por-ate-4h-loco-200ml/p/MLB23888872", "12.29")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/repelente-infantil-off-kids-proteco-contra-mosquito-por-ate-4h-loco-200ml/p/MLB23888872", "21.99")</f>
         <v/>
       </c>
       <c r="F155">
-        <f>HYPERLINK("https://www.drogariaspacheco.com.br/repelente-off-kids-johnson-200ml/p", "18.98")</f>
+        <f>HYPERLINK("https://www.drogariaspacheco.com.br/repelente-off-kids-johnson-200ml/p", "18.79")</f>
         <v/>
       </c>
       <c r="G155">
-        <f>HYPERLINK("https://www.drogaraia.com.br/off-kids-repelente-de-insetos-uso-infantil-locao-leve-200ml-pague-117ml.html", "18.98")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/off-kids-repelente-de-insetos-uso-infantil-locao-leve-200ml-pague-117ml.html", "18.79")</f>
         <v/>
       </c>
       <c r="H155" t="n">
-        <v>15.635</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="156">
@@ -5639,7 +5643,7 @@
         </is>
       </c>
       <c r="C156">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B08T6JZC6D", "25.79")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B08T6JZC6D", "24.50")</f>
         <v/>
       </c>
       <c r="D156">
@@ -5647,7 +5651,7 @@
         <v/>
       </c>
       <c r="E156">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/repelente-para-beb-sbp-baby-loco-corporal-com-icaridina-100ml/p/MLB36001909", "26.70")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/repelente-para-beb-sbp-baby-loco-corporal-com-icaridina-100ml/p/MLB36001909", "24.00")</f>
         <v/>
       </c>
       <c r="F156">
@@ -5659,7 +5663,7 @@
         <v/>
       </c>
       <c r="H156" t="n">
-        <v>29.754</v>
+        <v>28.956</v>
       </c>
     </row>
     <row r="157">
@@ -5672,7 +5676,7 @@
         </is>
       </c>
       <c r="C157">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B07VLJCJSW", "15.00")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B07VLJCJSW", "15.79")</f>
         <v/>
       </c>
       <c r="D157" t="inlineStr">
@@ -5681,7 +5685,7 @@
         </is>
       </c>
       <c r="E157">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/sbp-repelente-eletrico-liquido-aparelho-refil-cheiro-suave/p/MLB19762792", "13.61")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/sbp-repelente-eletrico-liquido-aparelho-refil-cheiro-suave/p/MLB19762792", "11.41")</f>
         <v/>
       </c>
       <c r="F157">
@@ -5693,7 +5697,7 @@
         <v/>
       </c>
       <c r="H157" t="n">
-        <v>15.0475</v>
+        <v>14.695</v>
       </c>
     </row>
     <row r="158">
@@ -5706,15 +5710,15 @@
         </is>
       </c>
       <c r="C158">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B08PPKQTFB", "29.69")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B08PPKQTFB", "26.90")</f>
         <v/>
       </c>
       <c r="D158">
-        <f>HYPERLINK("https://www.epocacosmeticos.com.br/lola-cosmetics-danos-vorazes-leave-in-finalizador-200ml/p", "33.00")</f>
+        <f>HYPERLINK("https://www.epocacosmeticos.com.br/lola-cosmetics-danos-vorazes-leave-in-finalizador-200ml/p", "32.90")</f>
         <v/>
       </c>
       <c r="E158">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/finalizador-leave-in-danos-vorazes-200ml-lola-cosmetics/p/MLB19002418", "23.17")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/finalizador-leave-in-danos-vorazes-200ml-lola-cosmetics/p/MLB19002418", "22.81")</f>
         <v/>
       </c>
       <c r="F158">
@@ -5726,7 +5730,7 @@
         <v/>
       </c>
       <c r="H158" t="n">
-        <v>32.736</v>
+        <v>32.086</v>
       </c>
     </row>
     <row r="159">
@@ -5739,7 +5743,7 @@
         </is>
       </c>
       <c r="C159">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C6RF38MJ", "32.90")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0C6RF38MJ", "29.61")</f>
         <v/>
       </c>
       <c r="D159">
@@ -5755,11 +5759,11 @@
         <v/>
       </c>
       <c r="G159">
-        <f>HYPERLINK("https://www.drogaraia.com.br/aussie-mascara-de-tratamento-hidratacao-270ml.html", "61.90")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/aussie-mascara-de-tratamento-hidratacao-270ml.html", "36.79")</f>
         <v/>
       </c>
       <c r="H159" t="n">
-        <v>40.488</v>
+        <v>34.808</v>
       </c>
     </row>
     <row r="160">
@@ -5772,7 +5776,7 @@
         </is>
       </c>
       <c r="C160">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B08TTJ4Y8W", "28.23")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B08TTJ4Y8W", "29.90")</f>
         <v/>
       </c>
       <c r="D160">
@@ -5793,7 +5797,7 @@
         <v/>
       </c>
       <c r="H160" t="n">
-        <v>24.18</v>
+        <v>24.5975</v>
       </c>
     </row>
     <row r="161">
@@ -5814,7 +5818,7 @@
         <v/>
       </c>
       <c r="E161">
-        <f>HYPERLINK("https://www.mercadolivre.com.br/repelente-baby-off-com-icaridina-proteco-por-ate-6h-loco-em-gel-117g/p/MLB24153836", "24.76")</f>
+        <f>HYPERLINK("https://www.mercadolivre.com.br/repelente-baby-off-com-icaridina-proteco-por-ate-6h-loco-em-gel-117g/p/MLB24153836", "21.49")</f>
         <v/>
       </c>
       <c r="F161" t="inlineStr">
@@ -5823,11 +5827,11 @@
         </is>
       </c>
       <c r="G161">
-        <f>HYPERLINK("https://www.drogaraia.com.br/off-baby-117ml.html", "28.99")</f>
+        <f>HYPERLINK("https://www.drogaraia.com.br/off-baby-117ml.html", "26.59")</f>
         <v/>
       </c>
       <c r="H161" t="n">
-        <v>35.96</v>
+        <v>34.5425</v>
       </c>
     </row>
     <row r="162">
@@ -5840,7 +5844,7 @@
         </is>
       </c>
       <c r="C162">
-        <f>HYPERLINK("https://www.amazon.com.br/dp/B0DCPY4VD4", "32.50")</f>
+        <f>HYPERLINK("https://www.amazon.com.br/dp/B0DCPY4VD4", "41.89")</f>
         <v/>
       </c>
       <c r="D162" t="inlineStr">
@@ -5862,7 +5866,7 @@
         <v/>
       </c>
       <c r="H162" t="n">
-        <v>46.13333333333333</v>
+        <v>49.26333333333333</v>
       </c>
     </row>
   </sheetData>
